--- a/Labs/Inf/Lab5/required task.xlsx
+++ b/Labs/Inf/Lab5/required task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipka23/Desktop/ITMO/Labs/Inf/Lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F079CDAD-BE40-7F4D-81D3-F9A9ED826507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228432C-EA9D-9F4F-9D1A-2A1BB09C8970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="740" windowWidth="28320" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -417,17 +417,11 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -462,6 +456,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1668,4867 +1668,4873 @@
   <dimension ref="A1:AI71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AE65" sqref="AE65:AI68"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3"/>
-    <col min="4" max="4" width="7" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7" style="4" customWidth="1"/>
-    <col min="6" max="24" width="3.6640625" style="3" customWidth="1"/>
-    <col min="25" max="26" width="8.6640625" style="5"/>
-    <col min="27" max="27" width="14" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="2"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2"/>
+    <col min="4" max="4" width="7" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7" style="1" customWidth="1"/>
+    <col min="6" max="24" width="3.6640625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="8.6640625" style="3"/>
+    <col min="27" max="27" width="14" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
         <v>10299</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
         <v>21882</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>15</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>14</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>13</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>12</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
         <v>11</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>10</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>9</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="5">
         <v>8</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5">
         <v>7</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="5">
         <v>6</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="5">
         <v>5</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="5">
         <v>4</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5">
         <v>3</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="5">
         <v>2</v>
       </c>
-      <c r="W3" s="7">
-        <v>1</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4" t="s">
+      <c r="W3" s="5">
+        <v>1</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AA3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <f>C1</f>
         <v>10299</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="str">
+      <c r="F4" s="6" t="str">
         <f t="shared" ref="F4:O15" si="0">IF(F$3="",".",MID(IF($C4&gt;0,_xlfn.BASE($C4,2,16),_xlfn.BASE($C4+2^16,2,16)),ABS(F$3-16),1))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K4" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P4" s="8" t="str">
+      <c r="G4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P4" s="6" t="str">
         <f t="shared" ref="P4:X15" si="1">IF(P$3="",".",MID(IF($C4&gt;0,_xlfn.BASE($C4,2,16),_xlfn.BASE($C4+2^16,2,16)),ABS(P$3-16),1))</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V4" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X4" s="9" t="str">
+      <c r="Q4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X4" s="7" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <f>C2</f>
         <v>21882</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X5" s="8" t="str">
+      <c r="F5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f>C4+C5</f>
         <v>32181</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P6" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S6" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="9" t="str">
+      <c r="F6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f>C6+C5</f>
         <v>54063</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="9" t="str">
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f>C5-C4</f>
         <v>11583</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X8" s="9" t="str">
+      <c r="F8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f>65536-C7</f>
         <v>11473</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="9" t="str">
+      <c r="F9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" ref="C10:C15" si="2">-C4</f>
         <v>-10299</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="1" t="str">
         <f>"-B1="</f>
         <v>-B1=</v>
       </c>
-      <c r="F10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="9" t="str">
+      <c r="F10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="7" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="2"/>
         <v>-21882</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="1" t="str">
         <f>"-B2="</f>
         <v>-B2=</v>
       </c>
-      <c r="F11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W11" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="8" t="str">
+      <c r="F11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="2"/>
         <v>-32181</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="1" t="str">
         <f>"-B3="</f>
         <v>-B3=</v>
       </c>
-      <c r="F12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="9" t="str">
+      <c r="F12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="2"/>
         <v>-54063</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="1" t="str">
         <f>"-B4="</f>
         <v>-B4=</v>
       </c>
-      <c r="F13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="9" t="str">
+      <c r="F13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="2"/>
         <v>-11583</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P14" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="9" t="str">
+      <c r="F14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="2"/>
         <v>-11473</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="1" t="str">
         <f>"-B6="</f>
         <v>-B6=</v>
       </c>
-      <c r="F15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U15" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V15" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W15" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X15" s="9" t="str">
+      <c r="F15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="U15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <f t="shared" ref="F17:X17" si="3">IF(F18&lt;&gt;".",IF(F18+F19&lt;&gt;0,IF(F18+F19+G17=3,1,MOD(F18+F19+G17-1,2)),0),G17)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="Q17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="S17" s="10">
+      <c r="S17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U17" s="10">
+      <c r="U17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V17" s="10">
+      <c r="V17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W17" s="10">
+      <c r="W17" s="8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X17" s="10">
+      <c r="X17" s="8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AE17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
     </row>
     <row r="18" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="2" t="str">
         <f t="shared" ref="F18:X18" si="4">F4</f>
         <v>0</v>
       </c>
-      <c r="G18" s="3" t="str">
+      <c r="G18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H18" s="3" t="str">
+      <c r="H18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I18" s="3" t="str">
+      <c r="I18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="str">
+      <c r="J18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>.</v>
       </c>
-      <c r="K18" s="3" t="str">
+      <c r="K18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L18" s="3" t="str">
+      <c r="L18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M18" s="3" t="str">
+      <c r="M18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="str">
+      <c r="N18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O18" s="3" t="str">
+      <c r="O18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>.</v>
       </c>
-      <c r="P18" s="3" t="str">
+      <c r="P18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="3" t="str">
+      <c r="Q18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="3" t="str">
+      <c r="R18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="S18" s="3" t="str">
+      <c r="S18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="T18" s="3" t="str">
+      <c r="T18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>.</v>
       </c>
-      <c r="U18" s="3" t="str">
+      <c r="U18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V18" s="3" t="str">
+      <c r="V18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W18" s="3" t="str">
+      <c r="W18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X18" s="3" t="str">
+      <c r="X18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Y18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="5" t="s">
+      <c r="AB18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AC18">
         <f>C4</f>
         <v>10299</v>
       </c>
-      <c r="AD18" s="12" t="s">
+      <c r="AD18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
     </row>
     <row r="19" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="13" t="str">
+      <c r="F19" s="11" t="str">
         <f t="shared" ref="F19:X19" si="5">F5</f>
         <v>0</v>
       </c>
-      <c r="G19" s="13" t="str">
+      <c r="G19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H19" s="13" t="str">
+      <c r="H19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I19" s="13" t="str">
+      <c r="I19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="J19" s="13" t="str">
+      <c r="J19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>.</v>
       </c>
-      <c r="K19" s="13" t="str">
+      <c r="K19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L19" s="13" t="str">
+      <c r="L19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="M19" s="13" t="str">
+      <c r="M19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N19" s="13" t="str">
+      <c r="N19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O19" s="13" t="str">
+      <c r="O19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>.</v>
       </c>
-      <c r="P19" s="13" t="str">
+      <c r="P19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="13" t="str">
+      <c r="Q19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="R19" s="13" t="str">
+      <c r="R19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="S19" s="13" t="str">
+      <c r="S19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T19" s="13" t="str">
+      <c r="T19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>.</v>
       </c>
-      <c r="U19" s="13" t="str">
+      <c r="U19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="V19" s="13" t="str">
+      <c r="V19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W19" s="13" t="str">
+      <c r="W19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="X19" s="13" t="str">
+      <c r="X19" s="11" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Y19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AA19" s="4" t="s">
+      <c r="AA19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB19" s="14" t="s">
+      <c r="AB19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AC19" s="15">
+      <c r="AC19" s="13">
         <f>C5</f>
         <v>21882</v>
       </c>
-      <c r="AD19" s="12" t="s">
+      <c r="AD19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
     </row>
     <row r="20" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="16">
+      <c r="E20" s="17"/>
+      <c r="F20" s="14">
         <f t="shared" ref="F20:X20" si="6">IF(F18&lt;&gt;".",MOD(G17+F18+F19,2),".")</f>
         <v>0</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J20" s="3" t="str">
+      <c r="J20" s="2" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="O20" s="3" t="str">
+      <c r="O20" s="2" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="T20" s="3" t="str">
+      <c r="T20" s="2" t="str">
         <f t="shared" si="6"/>
         <v>.</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="2">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Y20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="Z20" s="3">
         <f>IF(F20=0,_xlfn.DECIMAL(G20&amp;H20&amp;I20&amp;K20&amp;L20&amp;M20&amp;N20&amp;P20&amp;Q20&amp;R20&amp;S20&amp;U20&amp;V20&amp;W20&amp;X20, 2), 0-_xlfn.DECIMAL(G20&amp;H20&amp;I20&amp;K20&amp;L20&amp;M20&amp;N20&amp;P20&amp;Q20&amp;R20&amp;S20&amp;U20&amp;V20&amp;W20&amp;X20, 2))</f>
         <v>32181</v>
       </c>
-      <c r="AA20" s="12" t="s">
+      <c r="AA20" s="10" t="s">
         <v>43</v>
       </c>
       <c r="AC20">
         <f>AC18+AC19</f>
         <v>32181</v>
       </c>
-      <c r="AD20" s="12" t="s">
+      <c r="AD20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
     </row>
     <row r="21" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="str">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="2" t="str">
         <f>IF(F20=0,"",1)</f>
         <v/>
       </c>
-      <c r="G21" s="3" t="str">
+      <c r="G21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-G$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="H21" s="3" t="str">
+      <c r="H21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-H$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="I21" s="3" t="str">
+      <c r="I21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-I$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="J21" s="3" t="str">
+      <c r="J21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-J$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="K21" s="3" t="str">
+      <c r="K21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-K$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="L21" s="3" t="str">
+      <c r="L21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-L$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="M21" s="3" t="str">
+      <c r="M21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-M$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="N21" s="3" t="str">
+      <c r="N21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-N$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="O21" s="3" t="str">
+      <c r="O21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-O$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="P21" s="3" t="str">
+      <c r="P21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-P$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="Q21" s="3" t="str">
+      <c r="Q21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-Q$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="R21" s="3" t="str">
+      <c r="R21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-R$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="S21" s="3" t="str">
+      <c r="S21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-S$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="T21" s="3" t="str">
+      <c r="T21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-T$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="U21" s="3" t="str">
+      <c r="U21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-U$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="V21" s="3" t="str">
+      <c r="V21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-V$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="W21" s="3" t="str">
+      <c r="W21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-W$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="X21" s="3" t="str">
+      <c r="X21" s="2" t="str">
         <f>IF($F21&lt;&gt;"",IF(#REF!&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G20, $H20, $I20, $K20, $L20, $M20, $N20, $P20, $Q20, $R20, $S20, $U20, $V20, $W20, $X20),2),2,16),16-X$3,1),"."),"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <f>IF(F18+F19 = 2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <f>IF(MOD(SUM(P20:S20)+SUM(U20:X20),2) = 0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <f>IF(U18+U19 = 2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <f>IF(SUM(F20:X20) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="2">
         <f>IF(F20 = 1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="U23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="2">
         <f>MOD(F17+G17,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <f t="shared" ref="F25:X25" si="7">IF(F26&lt;&gt;".",IF(F26+F27&lt;&gt;0,IF(F26+F27+G25=3,1,MOD(F26+F27+G25-1,2)),0),G25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L25" s="10">
+      <c r="L25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="10">
+      <c r="Q25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S25" s="10">
+      <c r="S25" s="8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T25" s="10">
+      <c r="T25" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="U25" s="10">
+      <c r="U25" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="V25" s="10">
+      <c r="V25" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W25" s="10">
+      <c r="W25" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X25" s="10">
+      <c r="X25" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="1" t="s">
+      <c r="AE25" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
     </row>
     <row r="26" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="3" t="str">
+      <c r="F26" s="2" t="str">
         <f t="shared" ref="F26:X26" si="8">F5</f>
         <v>0</v>
       </c>
-      <c r="G26" s="3" t="str">
+      <c r="G26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="H26" s="3" t="str">
+      <c r="H26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I26" s="3" t="str">
+      <c r="I26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J26" s="3" t="str">
+      <c r="J26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>.</v>
       </c>
-      <c r="K26" s="3" t="str">
+      <c r="K26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="str">
+      <c r="L26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="M26" s="3" t="str">
+      <c r="M26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N26" s="3" t="str">
+      <c r="N26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="O26" s="3" t="str">
+      <c r="O26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>.</v>
       </c>
-      <c r="P26" s="3" t="str">
+      <c r="P26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="str">
+      <c r="Q26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R26" s="3" t="str">
+      <c r="R26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="S26" s="3" t="str">
+      <c r="S26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="T26" s="3" t="str">
+      <c r="T26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>.</v>
       </c>
-      <c r="U26" s="3" t="str">
+      <c r="U26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="V26" s="3" t="str">
+      <c r="V26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="W26" s="3" t="str">
+      <c r="W26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="X26" s="3" t="str">
+      <c r="X26" s="2" t="str">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="5" t="s">
+      <c r="AB26" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AC26">
         <f>C5</f>
         <v>21882</v>
       </c>
-      <c r="AD26" s="12" t="s">
+      <c r="AD26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
     </row>
     <row r="27" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="13" t="str">
+      <c r="F27" s="11" t="str">
         <f t="shared" ref="F27:X27" si="9">F6</f>
         <v>0</v>
       </c>
-      <c r="G27" s="13" t="str">
+      <c r="G27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="H27" s="13" t="str">
+      <c r="H27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="I27" s="13" t="str">
+      <c r="I27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="J27" s="13" t="str">
+      <c r="J27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="K27" s="13" t="str">
+      <c r="K27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="L27" s="13" t="str">
+      <c r="L27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="M27" s="13" t="str">
+      <c r="M27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N27" s="13" t="str">
+      <c r="N27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="O27" s="13" t="str">
+      <c r="O27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="P27" s="13" t="str">
+      <c r="P27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="13" t="str">
+      <c r="Q27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="R27" s="13" t="str">
+      <c r="R27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="S27" s="13" t="str">
+      <c r="S27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="T27" s="13" t="str">
+      <c r="T27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>.</v>
       </c>
-      <c r="U27" s="13" t="str">
+      <c r="U27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V27" s="13" t="str">
+      <c r="V27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="W27" s="13" t="str">
+      <c r="W27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X27" s="13" t="str">
+      <c r="X27" s="11" t="str">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AA27" s="4" t="s">
+      <c r="AA27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB27" s="14" t="s">
+      <c r="AB27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AC27" s="15">
+      <c r="AC27" s="13">
         <f>C6</f>
         <v>32181</v>
       </c>
-      <c r="AD27" s="12" t="s">
+      <c r="AD27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
     </row>
     <row r="28" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="17">
+      <c r="E28" s="17"/>
+      <c r="F28" s="15">
         <f t="shared" ref="F28:X28" si="10">IF(F26&lt;&gt;".",MOD(G25+F26+F27,2),".")</f>
         <v>1</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="J28" s="3" t="str">
+      <c r="J28" s="2" t="str">
         <f t="shared" si="10"/>
         <v>.</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="O28" s="3" t="str">
+      <c r="O28" s="2" t="str">
         <f t="shared" si="10"/>
         <v>.</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="2">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T28" s="3" t="str">
+      <c r="T28" s="2" t="str">
         <f t="shared" si="10"/>
         <v>.</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X28" s="2">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="11" t="s">
+      <c r="Y28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z28" s="5">
+      <c r="Z28" s="3">
         <f>IF(F28=0,_xlfn.DECIMAL(G28&amp;H28&amp;I28&amp;K28&amp;L28&amp;M28&amp;N28&amp;P28&amp;Q28&amp;R28&amp;S28&amp;U28&amp;V28&amp;W28&amp;X28, 2), 0-_xlfn.DECIMAL(G28&amp;H28&amp;I28&amp;K28&amp;L28&amp;M28&amp;N28&amp;P28&amp;Q28&amp;R28&amp;S28&amp;U28&amp;V28&amp;W28&amp;X28, 2))</f>
         <v>-21295</v>
       </c>
-      <c r="AA28" s="12" t="s">
+      <c r="AA28" s="10" t="s">
         <v>43</v>
       </c>
       <c r="AC28">
         <f>AC26+AC27</f>
         <v>54063</v>
       </c>
-      <c r="AD28" s="12" t="s">
+      <c r="AD28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
     </row>
     <row r="29" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="2">
         <f>IF(F28=0,"",1)</f>
         <v>1</v>
       </c>
-      <c r="G29" s="3" t="str">
+      <c r="G29" s="2" t="str">
         <f t="shared" ref="G29:X29" si="11">IF($F29&lt;&gt;"",IF(G4&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G28, $H28, $I28, $K28, $L28, $M28, $N28, $P28, $Q28, $R28, $S28, $U28, $V28, $W28, $X28),2),2,16),16-G$3,1),"."),"")</f>
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="str">
+      <c r="H29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="I29" s="3" t="str">
+      <c r="I29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="str">
+      <c r="J29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>.</v>
       </c>
-      <c r="K29" s="3" t="str">
+      <c r="K29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="L29" s="3" t="str">
+      <c r="L29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M29" s="3" t="str">
+      <c r="M29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="str">
+      <c r="N29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="str">
+      <c r="O29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>.</v>
       </c>
-      <c r="P29" s="3" t="str">
+      <c r="P29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="3" t="str">
+      <c r="Q29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="R29" s="3" t="str">
+      <c r="R29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="str">
+      <c r="S29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="T29" s="3" t="str">
+      <c r="T29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>.</v>
       </c>
-      <c r="U29" s="3" t="str">
+      <c r="U29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="str">
+      <c r="V29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="str">
+      <c r="W29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X29" s="3" t="str">
+      <c r="X29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <f>IF(F26+F27 = 2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <f>IF(MOD(SUM(P28:S28)+SUM(U28:X28),2) = 0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="2">
         <f>IF(U26+U27 = 2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="2">
         <f>IF(SUM(F28:X28) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="R31" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="2">
         <f>IF(F28 = 1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="U31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V31" s="2">
         <f>MOD(F25+G25,2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="4:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F33" s="10">
+      <c r="F33" s="8">
         <f t="shared" ref="F33:X33" si="12">IF(F34&lt;&gt;".",IF(F34+F35&lt;&gt;0,IF(F34+F35+G33=3,1,MOD(F34+F35+G33-1,2)),0),G33)</f>
         <v>1</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L33" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="M33" s="10">
+      <c r="M33" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="10">
+      <c r="Q33" s="8">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="S33" s="10">
+      <c r="S33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T33" s="10">
+      <c r="T33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U33" s="10">
+      <c r="U33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="V33" s="10">
+      <c r="V33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W33" s="10">
+      <c r="W33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X33" s="10">
+      <c r="X33" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="1" t="s">
+      <c r="AE33" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
     </row>
     <row r="34" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="3" t="str">
+      <c r="F34" s="2" t="str">
         <f t="shared" ref="F34:X34" si="13">F5</f>
         <v>0</v>
       </c>
-      <c r="G34" s="3" t="str">
+      <c r="G34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H34" s="3" t="str">
+      <c r="H34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I34" s="3" t="str">
+      <c r="I34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="J34" s="3" t="str">
+      <c r="J34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="K34" s="3" t="str">
+      <c r="K34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L34" s="3" t="str">
+      <c r="L34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="M34" s="3" t="str">
+      <c r="M34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N34" s="3" t="str">
+      <c r="N34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O34" s="3" t="str">
+      <c r="O34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="P34" s="3" t="str">
+      <c r="P34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="3" t="str">
+      <c r="Q34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="R34" s="3" t="str">
+      <c r="R34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="S34" s="3" t="str">
+      <c r="S34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="T34" s="3" t="str">
+      <c r="T34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>.</v>
       </c>
-      <c r="U34" s="3" t="str">
+      <c r="U34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="V34" s="3" t="str">
+      <c r="V34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W34" s="3" t="str">
+      <c r="W34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="X34" s="3" t="str">
+      <c r="X34" s="2" t="str">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="11" t="s">
+      <c r="Y34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AB34" s="5" t="s">
+      <c r="AB34" s="3" t="s">
         <v>46</v>
       </c>
       <c r="AC34">
         <f>C5</f>
         <v>21882</v>
       </c>
-      <c r="AD34" s="12" t="s">
+      <c r="AD34" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
     </row>
     <row r="35" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="13" t="str">
+      <c r="F35" s="11" t="str">
         <f t="shared" ref="F35:X35" si="14">F10</f>
         <v>1</v>
       </c>
-      <c r="G35" s="13" t="str">
+      <c r="G35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="H35" s="13" t="str">
+      <c r="H35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I35" s="13" t="str">
+      <c r="I35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="J35" s="13" t="str">
+      <c r="J35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>.</v>
       </c>
-      <c r="K35" s="13" t="str">
+      <c r="K35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L35" s="13" t="str">
+      <c r="L35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="M35" s="13" t="str">
+      <c r="M35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="N35" s="13" t="str">
+      <c r="N35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="O35" s="13" t="str">
+      <c r="O35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>.</v>
       </c>
-      <c r="P35" s="13" t="str">
+      <c r="P35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Q35" s="13" t="str">
+      <c r="Q35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R35" s="13" t="str">
+      <c r="R35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="S35" s="13" t="str">
+      <c r="S35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="T35" s="13" t="str">
+      <c r="T35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>.</v>
       </c>
-      <c r="U35" s="13" t="str">
+      <c r="U35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="V35" s="13" t="str">
+      <c r="V35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="W35" s="13" t="str">
+      <c r="W35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X35" s="13" t="str">
+      <c r="X35" s="11" t="str">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="Y35" s="11" t="s">
+      <c r="Y35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AA35" s="4" t="s">
+      <c r="AA35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB35" s="14" t="s">
+      <c r="AB35" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AC35" s="15">
+      <c r="AC35" s="13">
         <f>C10</f>
         <v>-10299</v>
       </c>
-      <c r="AD35" s="12" t="s">
+      <c r="AD35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
+      <c r="AH35" s="18"/>
+      <c r="AI35" s="18"/>
     </row>
     <row r="36" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3">
+      <c r="E36" s="17"/>
+      <c r="F36" s="2">
         <f t="shared" ref="F36:X36" si="15">IF(F34&lt;&gt;".",MOD(G33+F34+F35,2),".")</f>
         <v>0</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J36" s="3" t="str">
+      <c r="J36" s="2" t="str">
         <f t="shared" si="15"/>
         <v>.</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="O36" s="3" t="str">
+      <c r="O36" s="2" t="str">
         <f t="shared" si="15"/>
         <v>.</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="2">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R36" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S36" s="3">
+      <c r="S36" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T36" s="3" t="str">
+      <c r="T36" s="2" t="str">
         <f t="shared" si="15"/>
         <v>.</v>
       </c>
-      <c r="U36" s="3">
+      <c r="U36" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="V36" s="3">
+      <c r="V36" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="W36" s="3">
+      <c r="W36" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="X36" s="3">
+      <c r="X36" s="2">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Y36" s="11" t="s">
+      <c r="Y36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z36" s="5">
+      <c r="Z36" s="3">
         <f>IF(F36=0,_xlfn.DECIMAL(G36&amp;H36&amp;I36&amp;K36&amp;L36&amp;M36&amp;N36&amp;P36&amp;Q36&amp;R36&amp;S36&amp;U36&amp;V36&amp;W36&amp;X36, 2), 0-_xlfn.DECIMAL(G36&amp;H36&amp;I36&amp;K36&amp;L36&amp;M36&amp;N36&amp;P36&amp;Q36&amp;R36&amp;S36&amp;U36&amp;V36&amp;W36&amp;X36, 2))</f>
         <v>11583</v>
       </c>
-      <c r="AA36" s="12" t="s">
+      <c r="AA36" s="10" t="s">
         <v>43</v>
       </c>
       <c r="AC36">
         <f>AC34+AC35</f>
         <v>11583</v>
       </c>
-      <c r="AD36" s="12" t="s">
+      <c r="AD36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="18"/>
     </row>
     <row r="37" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3" t="str">
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="2" t="str">
         <f>IF(F36=0,"",1)</f>
         <v/>
       </c>
-      <c r="G37" s="3" t="str">
+      <c r="G37" s="2" t="str">
         <f t="shared" ref="G37:X37" si="16">IF($F37&lt;&gt;"",IF(G12&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G36, $H36, $I36, $K36, $L36, $M36, $N36, $P36, $Q36, $R36, $S36, $U36, $V36, $W36, $X36),2),2,16),16-G$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="H37" s="3" t="str">
+      <c r="H37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="I37" s="3" t="str">
+      <c r="I37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="J37" s="3" t="str">
+      <c r="J37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="K37" s="3" t="str">
+      <c r="K37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="L37" s="3" t="str">
+      <c r="L37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="M37" s="3" t="str">
+      <c r="M37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="N37" s="3" t="str">
+      <c r="N37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="O37" s="3" t="str">
+      <c r="O37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="P37" s="3" t="str">
+      <c r="P37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="Q37" s="3" t="str">
+      <c r="Q37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="R37" s="3" t="str">
+      <c r="R37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="S37" s="3" t="str">
+      <c r="S37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="T37" s="3" t="str">
+      <c r="T37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="U37" s="3" t="str">
+      <c r="U37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="V37" s="3" t="str">
+      <c r="V37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="W37" s="3" t="str">
+      <c r="W37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="X37" s="3" t="str">
+      <c r="X37" s="2" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <f>IF(F34+F35 = 2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <f>IF(MOD(SUM(P36:S36)+SUM(U36:X36),2) = 0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="2">
         <f>IF(U34+U35 = 2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="2">
         <f>IF(SUM(F36:X36) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="R39" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S39" s="2">
         <f>IF(F36 = 1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="U39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V39" s="3">
+      <c r="V39" s="2">
         <f>MOD(F33+G33,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE40" s="18"/>
-      <c r="AF40" s="18"/>
-      <c r="AG40" s="18"/>
-      <c r="AH40" s="18"/>
-      <c r="AI40" s="18"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="16"/>
     </row>
     <row r="41" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="10">
+      <c r="F41" s="8">
         <f t="shared" ref="F41:X41" si="17">IF(F42&lt;&gt;".",IF(F42+F43&lt;&gt;0,IF(F42+F43+G41=3,1,MOD(F42+F43+G41-1,2)),0),G41)</f>
         <v>1</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="8">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="8">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="8">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="8">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="8">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L41" s="8">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="M41" s="10">
+      <c r="M41" s="8">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="N41" s="10">
+      <c r="N41" s="8">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="8">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="8">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="Q41" s="10">
+      <c r="Q41" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="R41" s="10">
+      <c r="R41" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S41" s="10">
+      <c r="S41" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T41" s="10">
+      <c r="T41" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="U41" s="10">
+      <c r="U41" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="V41" s="10">
+      <c r="V41" s="8">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="W41" s="10">
+      <c r="W41" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="X41" s="10">
+      <c r="X41" s="8">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="1" t="s">
+      <c r="AE41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18"/>
     </row>
     <row r="42" spans="4:35" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="3" t="str">
+      <c r="F42" s="2" t="str">
         <f t="shared" ref="F42:X42" si="18">F10</f>
         <v>1</v>
       </c>
-      <c r="G42" s="3" t="str">
+      <c r="G42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="H42" s="3" t="str">
+      <c r="H42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I42" s="3" t="str">
+      <c r="I42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="J42" s="3" t="str">
+      <c r="J42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>.</v>
       </c>
-      <c r="K42" s="3" t="str">
+      <c r="K42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="str">
+      <c r="L42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="M42" s="3" t="str">
+      <c r="M42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="N42" s="3" t="str">
+      <c r="N42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="O42" s="3" t="str">
+      <c r="O42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>.</v>
       </c>
-      <c r="P42" s="3" t="str">
+      <c r="P42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="Q42" s="3" t="str">
+      <c r="Q42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="R42" s="3" t="str">
+      <c r="R42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="str">
+      <c r="S42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="str">
+      <c r="T42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>.</v>
       </c>
-      <c r="U42" s="3" t="str">
+      <c r="U42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="str">
+      <c r="V42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="W42" s="3" t="str">
+      <c r="W42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="X42" s="3" t="str">
+      <c r="X42" s="2" t="str">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="Y42" s="11" t="s">
+      <c r="Y42" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AB42" s="5" t="s">
+      <c r="AB42" s="3" t="s">
         <v>59</v>
       </c>
       <c r="AC42">
         <f>C10</f>
         <v>-10299</v>
       </c>
-      <c r="AD42" s="12" t="s">
+      <c r="AD42" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
     </row>
     <row r="43" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="13" t="str">
+      <c r="F43" s="11" t="str">
         <f t="shared" ref="F43:X43" si="19">F11</f>
         <v>1</v>
       </c>
-      <c r="G43" s="13" t="str">
+      <c r="G43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H43" s="13" t="str">
+      <c r="H43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="I43" s="13" t="str">
+      <c r="I43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J43" s="13" t="str">
+      <c r="J43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="K43" s="13" t="str">
+      <c r="K43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="L43" s="13" t="str">
+      <c r="L43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M43" s="13" t="str">
+      <c r="M43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="N43" s="13" t="str">
+      <c r="N43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O43" s="13" t="str">
+      <c r="O43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="P43" s="13" t="str">
+      <c r="P43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="Q43" s="13" t="str">
+      <c r="Q43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R43" s="13" t="str">
+      <c r="R43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S43" s="13" t="str">
+      <c r="S43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="T43" s="13" t="str">
+      <c r="T43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>.</v>
       </c>
-      <c r="U43" s="13" t="str">
+      <c r="U43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="V43" s="13" t="str">
+      <c r="V43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W43" s="13" t="str">
+      <c r="W43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="X43" s="13" t="str">
+      <c r="X43" s="11" t="str">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="11" t="s">
+      <c r="Y43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AA43" s="4" t="s">
+      <c r="AA43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB43" s="14" t="s">
+      <c r="AB43" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AC43" s="15">
+      <c r="AC43" s="13">
         <f>C11</f>
         <v>-21882</v>
       </c>
-      <c r="AD43" s="12" t="s">
+      <c r="AD43" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE43" s="1"/>
-      <c r="AF43" s="1"/>
-      <c r="AG43" s="1"/>
-      <c r="AH43" s="1"/>
-      <c r="AI43" s="1"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="18"/>
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="18"/>
     </row>
     <row r="44" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="17">
+      <c r="E44" s="17"/>
+      <c r="F44" s="15">
         <f t="shared" ref="F44:X44" si="20">IF(F42&lt;&gt;".",MOD(G41+F42+F43,2),".")</f>
         <v>1</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="str">
+      <c r="J44" s="2" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="2">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="str">
+      <c r="O44" s="2" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="2">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="str">
+      <c r="T44" s="2" t="str">
         <f t="shared" si="20"/>
         <v>.</v>
       </c>
-      <c r="U44" s="3">
+      <c r="U44" s="2">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="2">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="2">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="2">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="Y44" s="11" t="s">
+      <c r="Y44" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z44" s="5">
+      <c r="Z44" s="3">
         <f>IF(F44=0,_xlfn.DECIMAL(G44&amp;H44&amp;I44&amp;K44&amp;L44&amp;M44&amp;N44&amp;P44&amp;Q44&amp;R44&amp;S44&amp;U44&amp;V44&amp;W44&amp;X44, 2), 0-_xlfn.DECIMAL(G44&amp;H44&amp;I44&amp;K44&amp;L44&amp;M44&amp;N44&amp;P44&amp;Q44&amp;R44&amp;S44&amp;U44&amp;V44&amp;W44&amp;X44, 2))</f>
         <v>-587</v>
       </c>
-      <c r="AA44" s="12" t="s">
+      <c r="AA44" s="10" t="s">
         <v>43</v>
       </c>
       <c r="AC44">
         <f>AC42+AC43</f>
         <v>-32181</v>
       </c>
-      <c r="AD44" s="12" t="s">
+      <c r="AD44" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE44" s="1"/>
-      <c r="AF44" s="1"/>
-      <c r="AG44" s="1"/>
-      <c r="AH44" s="1"/>
-      <c r="AI44" s="1"/>
+      <c r="AE44" s="18"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18"/>
     </row>
     <row r="45" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="2">
         <f>IF(F44=0,"",1)</f>
         <v>1</v>
       </c>
-      <c r="G45" s="3" t="str">
+      <c r="G45" s="2" t="str">
         <f t="shared" ref="G45:X45" si="21">IF($F45&lt;&gt;"",IF(G20&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G44, $H44, $I44, $K44, $L44, $M44, $N44, $P44, $Q44, $R44, $S44, $U44, $V44, $W44, $X44),2),2,16),16-G$3,1),"."),"")</f>
         <v>1</v>
       </c>
-      <c r="H45" s="3" t="str">
+      <c r="H45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="I45" s="3" t="str">
+      <c r="I45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="J45" s="3" t="str">
+      <c r="J45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>.</v>
       </c>
-      <c r="K45" s="3" t="str">
+      <c r="K45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="L45" s="3" t="str">
+      <c r="L45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="M45" s="3" t="str">
+      <c r="M45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="str">
+      <c r="N45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="O45" s="3" t="str">
+      <c r="O45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>.</v>
       </c>
-      <c r="P45" s="3" t="str">
+      <c r="P45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Q45" s="3" t="str">
+      <c r="Q45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="str">
+      <c r="R45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="S45" s="3" t="str">
+      <c r="S45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="T45" s="3" t="str">
+      <c r="T45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>.</v>
       </c>
-      <c r="U45" s="3" t="str">
+      <c r="U45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="str">
+      <c r="V45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="W45" s="3" t="str">
+      <c r="W45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="str">
+      <c r="X45" s="2" t="str">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="Y45" s="11" t="s">
+      <c r="Y45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z45" s="5">
+      <c r="Z45" s="3">
         <f>IF(F45=0,_xlfn.DECIMAL(G45&amp;H45&amp;I45&amp;K45&amp;L45&amp;M45&amp;N45&amp;P45&amp;Q45&amp;R45&amp;S45&amp;U45&amp;V45&amp;W45&amp;X45, 2), 0-_xlfn.DECIMAL(G45&amp;H45&amp;I45&amp;K45&amp;L45&amp;M45&amp;N45&amp;P45&amp;Q45&amp;R45&amp;S45&amp;U45&amp;V45&amp;W45&amp;X45, 2))</f>
         <v>-32181</v>
       </c>
-      <c r="AA45" s="12" t="s">
+      <c r="AA45" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <f>IF(F42+F43 = 2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <f>IF(MOD(SUM(P44:S44)+SUM(U44:X44),2) = 0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="2">
         <f>IF(U42+U43 = 2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="2">
         <f>IF(SUM(F44:X44) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
+      <c r="R47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="2">
         <f>IF(F44 = 1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="U47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="2">
         <f>MOD(F41+G41,2)</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="18"/>
-      <c r="AF47" s="18"/>
-      <c r="AG47" s="18"/>
-      <c r="AH47" s="18"/>
-      <c r="AI47" s="18"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="16"/>
     </row>
     <row r="48" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="AE48" s="18"/>
-      <c r="AF48" s="18"/>
-      <c r="AG48" s="18"/>
-      <c r="AH48" s="18"/>
-      <c r="AI48" s="18"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="16"/>
+      <c r="AI48" s="16"/>
     </row>
     <row r="49" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="10">
+      <c r="F49" s="8">
         <f t="shared" ref="F49:X49" si="22">IF(F50&lt;&gt;".",IF(F50+F51&lt;&gt;0,IF(F50+F51+G49=3,1,MOD(F50+F51+G49-1,2)),0),G49)</f>
         <v>1</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="M49" s="10">
+      <c r="M49" s="8">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="N49" s="10">
+      <c r="N49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O49" s="10">
+      <c r="O49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="P49" s="10">
+      <c r="P49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="10">
+      <c r="Q49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R49" s="10">
+      <c r="R49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S49" s="10">
+      <c r="S49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T49" s="10">
+      <c r="T49" s="8">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="U49" s="10">
+      <c r="U49" s="8">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="V49" s="10">
+      <c r="V49" s="8">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="W49" s="10">
+      <c r="W49" s="8">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="X49" s="10">
+      <c r="X49" s="8">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE49" s="1" t="s">
+      <c r="AE49" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="AF49" s="1"/>
-      <c r="AG49" s="1"/>
-      <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="18"/>
     </row>
     <row r="50" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="3" t="str">
+      <c r="F50" s="2" t="str">
         <f t="shared" ref="F50:X50" si="23">F11</f>
         <v>1</v>
       </c>
-      <c r="G50" s="3" t="str">
+      <c r="G50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H50" s="3" t="str">
+      <c r="H50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="I50" s="3" t="str">
+      <c r="I50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="J50" s="3" t="str">
+      <c r="J50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>.</v>
       </c>
-      <c r="K50" s="3" t="str">
+      <c r="K50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="L50" s="3" t="str">
+      <c r="L50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M50" s="3" t="str">
+      <c r="M50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="N50" s="3" t="str">
+      <c r="N50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="O50" s="3" t="str">
+      <c r="O50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>.</v>
       </c>
-      <c r="P50" s="3" t="str">
+      <c r="P50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="Q50" s="3" t="str">
+      <c r="Q50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="R50" s="3" t="str">
+      <c r="R50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="S50" s="3" t="str">
+      <c r="S50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="T50" s="3" t="str">
+      <c r="T50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>.</v>
       </c>
-      <c r="U50" s="3" t="str">
+      <c r="U50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="V50" s="3" t="str">
+      <c r="V50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="W50" s="3" t="str">
+      <c r="W50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="X50" s="3" t="str">
+      <c r="X50" s="2" t="str">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="11" t="s">
+      <c r="Y50" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AB50" s="5" t="s">
+      <c r="AB50" s="3" t="s">
         <v>61</v>
       </c>
       <c r="AC50">
         <f>C11</f>
         <v>-21882</v>
       </c>
-      <c r="AD50" s="12" t="s">
+      <c r="AD50" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE50" s="1"/>
-      <c r="AF50" s="1"/>
-      <c r="AG50" s="1"/>
-      <c r="AH50" s="1"/>
-      <c r="AI50" s="1"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="18"/>
     </row>
     <row r="51" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="13" t="str">
+      <c r="F51" s="11" t="str">
         <f t="shared" ref="F51:X51" si="24">F12</f>
         <v>1</v>
       </c>
-      <c r="G51" s="13" t="str">
+      <c r="G51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="H51" s="13" t="str">
+      <c r="H51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I51" s="13" t="str">
+      <c r="I51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J51" s="13" t="str">
+      <c r="J51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>.</v>
       </c>
-      <c r="K51" s="13" t="str">
+      <c r="K51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L51" s="13" t="str">
+      <c r="L51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M51" s="13" t="str">
+      <c r="M51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="N51" s="13" t="str">
+      <c r="N51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="O51" s="13" t="str">
+      <c r="O51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>.</v>
       </c>
-      <c r="P51" s="13" t="str">
+      <c r="P51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="13" t="str">
+      <c r="Q51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="R51" s="13" t="str">
+      <c r="R51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="S51" s="13" t="str">
+      <c r="S51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="T51" s="13" t="str">
+      <c r="T51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>.</v>
       </c>
-      <c r="U51" s="13" t="str">
+      <c r="U51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="V51" s="13" t="str">
+      <c r="V51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="W51" s="13" t="str">
+      <c r="W51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="X51" s="13" t="str">
+      <c r="X51" s="11" t="str">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="Y51" s="11" t="s">
+      <c r="Y51" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AA51" s="4" t="s">
+      <c r="AA51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB51" s="14" t="s">
+      <c r="AB51" s="12" t="s">
         <v>63</v>
       </c>
       <c r="AC51">
         <f>C12</f>
         <v>-32181</v>
       </c>
-      <c r="AD51" s="12" t="s">
+      <c r="AD51" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE51" s="1"/>
-      <c r="AF51" s="1"/>
-      <c r="AG51" s="1"/>
-      <c r="AH51" s="1"/>
-      <c r="AI51" s="1"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+      <c r="AI51" s="18"/>
     </row>
     <row r="52" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="17">
+      <c r="E52" s="17"/>
+      <c r="F52" s="15">
         <f t="shared" ref="F52:X52" si="25">IF(F50&lt;&gt;".",MOD(G49+F50+F51,2),".")</f>
         <v>0</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="2">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="str">
+      <c r="J52" s="2" t="str">
         <f t="shared" si="25"/>
         <v>.</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="2">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="2">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="2">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="str">
+      <c r="O52" s="2" t="str">
         <f t="shared" si="25"/>
         <v>.</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="2">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="2">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="2">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="2">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="T52" s="3" t="str">
+      <c r="T52" s="2" t="str">
         <f t="shared" si="25"/>
         <v>.</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="2">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="2">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="2">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="2">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="Y52" s="11" t="s">
+      <c r="Y52" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="Z52" s="3">
         <f>IF(F52=0,_xlfn.DECIMAL(G52&amp;H52&amp;I52&amp;K52&amp;L52&amp;M52&amp;N52&amp;P52&amp;Q52&amp;R52&amp;S52&amp;U52&amp;V52&amp;W52&amp;X52, 2), 0-_xlfn.DECIMAL(G52&amp;H52&amp;I52&amp;K52&amp;L52&amp;M52&amp;N52&amp;P52&amp;Q52&amp;R52&amp;S52&amp;U52&amp;V52&amp;W52&amp;X52, 2))</f>
         <v>11473</v>
       </c>
-      <c r="AA52" s="12" t="s">
+      <c r="AA52" s="10" t="s">
         <v>43</v>
       </c>
       <c r="AC52">
         <f>AC50+AC51</f>
         <v>-54063</v>
       </c>
-      <c r="AD52" s="12" t="s">
+      <c r="AD52" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
+      <c r="AE52" s="18"/>
+      <c r="AF52" s="18"/>
+      <c r="AG52" s="18"/>
+      <c r="AH52" s="18"/>
+      <c r="AI52" s="18"/>
     </row>
     <row r="53" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="3" t="str">
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="2" t="str">
         <f>IF(F52=0,"",1)</f>
         <v/>
       </c>
-      <c r="G53" s="3" t="str">
+      <c r="G53" s="2" t="str">
         <f t="shared" ref="G53:X53" si="26">IF($F53&lt;&gt;"",IF(G28&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G52, $H52, $I52, $K52, $L52, $M52, $N52, $P52, $Q52, $R52, $S52, $U52, $V52, $W52, $X52),2),2,16),16-G$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="H53" s="3" t="str">
+      <c r="H53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="I53" s="3" t="str">
+      <c r="I53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="J53" s="3" t="str">
+      <c r="J53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="K53" s="3" t="str">
+      <c r="K53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="L53" s="3" t="str">
+      <c r="L53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="M53" s="3" t="str">
+      <c r="M53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="N53" s="3" t="str">
+      <c r="N53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="O53" s="3" t="str">
+      <c r="O53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="P53" s="3" t="str">
+      <c r="P53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="Q53" s="3" t="str">
+      <c r="Q53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="R53" s="3" t="str">
+      <c r="R53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="S53" s="3" t="str">
+      <c r="S53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="T53" s="3" t="str">
+      <c r="T53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="U53" s="3" t="str">
+      <c r="U53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="V53" s="3" t="str">
+      <c r="V53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="W53" s="3" t="str">
+      <c r="W53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="X53" s="3" t="str">
+      <c r="X53" s="2" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="Y53" s="11"/>
-      <c r="AA53" s="12"/>
+      <c r="Y53" s="9"/>
+      <c r="AA53" s="10"/>
     </row>
     <row r="55" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="2">
         <f>IF(F50+F51 = 2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <f>IF(MOD(SUM(P52:S52)+SUM(U52:X52),2) = 0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="2">
         <f>IF(U50+U51 = 2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O55" s="3" t="s">
+      <c r="O55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P55" s="2">
         <f>IF(SUM(F52:X52) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="R55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S55" s="3">
+      <c r="S55" s="2">
         <f>IF(F52 = 1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U55" s="3" t="s">
+      <c r="U55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V55" s="3">
+      <c r="V55" s="2">
         <f>MOD(F49+G49,2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="F57" s="10">
+      <c r="F57" s="8">
         <f t="shared" ref="F57:X57" si="27">IF(F58&lt;&gt;".",IF(F58+F59&lt;&gt;0,IF(F58+F59+G57=3,1,MOD(F58+F59+G57-1,2)),0),G57)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="8">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="8">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="8">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="J57" s="10">
+      <c r="J57" s="8">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57" s="8">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="L57" s="10">
+      <c r="L57" s="8">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M57" s="10">
+      <c r="M57" s="8">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N57" s="10">
+      <c r="N57" s="8">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="O57" s="10">
+      <c r="O57" s="8">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="P57" s="10">
+      <c r="P57" s="8">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="10">
+      <c r="Q57" s="8">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="R57" s="10">
+      <c r="R57" s="8">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="S57" s="10">
+      <c r="S57" s="8">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="T57" s="10">
+      <c r="T57" s="8">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="U57" s="10">
+      <c r="U57" s="8">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="V57" s="10">
+      <c r="V57" s="8">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="W57" s="10">
+      <c r="W57" s="8">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="X57" s="10">
+      <c r="X57" s="8">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AE57" s="1" t="s">
+      <c r="AE57" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
+      <c r="AF57" s="18"/>
+      <c r="AG57" s="18"/>
+      <c r="AH57" s="18"/>
+      <c r="AI57" s="18"/>
     </row>
     <row r="58" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="3" t="str">
+      <c r="F58" s="2" t="str">
         <f t="shared" ref="F58:X58" si="28">F4</f>
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="str">
+      <c r="G58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="str">
+      <c r="H58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="I58" s="3" t="str">
+      <c r="I58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="str">
+      <c r="J58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>.</v>
       </c>
-      <c r="K58" s="3" t="str">
+      <c r="K58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="L58" s="3" t="str">
+      <c r="L58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="str">
+      <c r="M58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="str">
+      <c r="N58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="str">
+      <c r="O58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>.</v>
       </c>
-      <c r="P58" s="3" t="str">
+      <c r="P58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="str">
+      <c r="Q58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="str">
+      <c r="R58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="S58" s="3" t="str">
+      <c r="S58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="T58" s="3" t="str">
+      <c r="T58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>.</v>
       </c>
-      <c r="U58" s="3" t="str">
+      <c r="U58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="V58" s="3" t="str">
+      <c r="V58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="str">
+      <c r="W58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="X58" s="3" t="str">
+      <c r="X58" s="2" t="str">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="Y58" s="11" t="s">
+      <c r="Y58" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AB58" s="5" t="s">
+      <c r="AB58" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AC58">
         <f>C4</f>
         <v>10299</v>
       </c>
-      <c r="AD58" s="12" t="s">
+      <c r="AD58" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="18"/>
+      <c r="AG58" s="18"/>
+      <c r="AH58" s="18"/>
+      <c r="AI58" s="18"/>
     </row>
     <row r="59" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F59" s="13" t="str">
+      <c r="F59" s="11" t="str">
         <f t="shared" ref="F59:X59" si="29">F11</f>
         <v>1</v>
       </c>
-      <c r="G59" s="13" t="str">
+      <c r="G59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="H59" s="13" t="str">
+      <c r="H59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="I59" s="13" t="str">
+      <c r="I59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J59" s="13" t="str">
+      <c r="J59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="K59" s="13" t="str">
+      <c r="K59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="L59" s="13" t="str">
+      <c r="L59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="M59" s="13" t="str">
+      <c r="M59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="N59" s="13" t="str">
+      <c r="N59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O59" s="13" t="str">
+      <c r="O59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="P59" s="13" t="str">
+      <c r="P59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="Q59" s="13" t="str">
+      <c r="Q59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="R59" s="13" t="str">
+      <c r="R59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="S59" s="13" t="str">
+      <c r="S59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="T59" s="13" t="str">
+      <c r="T59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>.</v>
       </c>
-      <c r="U59" s="13" t="str">
+      <c r="U59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="V59" s="13" t="str">
+      <c r="V59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="W59" s="13" t="str">
+      <c r="W59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="X59" s="13" t="str">
+      <c r="X59" s="11" t="str">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="Y59" s="11" t="s">
+      <c r="Y59" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AA59" s="4" t="s">
+      <c r="AA59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB59" s="14" t="s">
+      <c r="AB59" s="12" t="s">
         <v>61</v>
       </c>
       <c r="AC59">
         <f>C11</f>
         <v>-21882</v>
       </c>
-      <c r="AD59" s="12" t="s">
+      <c r="AD59" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
+      <c r="AE59" s="18"/>
+      <c r="AF59" s="18"/>
+      <c r="AG59" s="18"/>
+      <c r="AH59" s="18"/>
+      <c r="AI59" s="18"/>
     </row>
     <row r="60" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="17">
+      <c r="E60" s="17"/>
+      <c r="F60" s="15">
         <f t="shared" ref="F60:X60" si="30">IF(F58&lt;&gt;".",MOD(G57+F58+F59,2),".")</f>
         <v>1</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="2">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="2">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="2">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="J60" s="3" t="str">
+      <c r="J60" s="2" t="str">
         <f t="shared" si="30"/>
         <v>.</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="2">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="2">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="2">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="2">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="O60" s="3" t="str">
+      <c r="O60" s="2" t="str">
         <f t="shared" si="30"/>
         <v>.</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="2">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="2">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="2">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="2">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="T60" s="3" t="str">
+      <c r="T60" s="2" t="str">
         <f t="shared" si="30"/>
         <v>.</v>
       </c>
-      <c r="U60" s="3">
+      <c r="U60" s="2">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V60" s="2">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="W60" s="3">
+      <c r="W60" s="2">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="X60" s="3">
+      <c r="X60" s="2">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="Y60" s="11" t="s">
+      <c r="Y60" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z60" s="5">
+      <c r="Z60" s="3">
         <f>IF(F60=0,_xlfn.DECIMAL(G60&amp;H60&amp;I60&amp;K60&amp;L60&amp;M60&amp;N60&amp;P60&amp;Q60&amp;R60&amp;S60&amp;U60&amp;V60&amp;W60&amp;X60, 2), 0-_xlfn.DECIMAL(G60&amp;H60&amp;I60&amp;K60&amp;L60&amp;M60&amp;N60&amp;P60&amp;Q60&amp;R60&amp;S60&amp;U60&amp;V60&amp;W60&amp;X60, 2))</f>
         <v>-21185</v>
       </c>
-      <c r="AA60" s="12" t="s">
+      <c r="AA60" s="10" t="s">
         <v>43</v>
       </c>
       <c r="AC60">
         <f>AC58+AC59</f>
         <v>-11583</v>
       </c>
-      <c r="AD60" s="12" t="s">
+      <c r="AD60" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
+      <c r="AE60" s="18"/>
+      <c r="AF60" s="18"/>
+      <c r="AG60" s="18"/>
+      <c r="AH60" s="18"/>
+      <c r="AI60" s="18"/>
     </row>
     <row r="61" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="3">
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="2">
         <f>IF(F60=0,"",1)</f>
         <v>1</v>
       </c>
-      <c r="G61" s="3" t="str">
+      <c r="G61" s="2" t="str">
         <f t="shared" ref="G61:X61" si="31">IF($F61&lt;&gt;"",IF(G36&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G60, $H60, $I60, $K60, $L60, $M60, $N60, $P60, $Q60, $R60, $S60, $U60, $V60, $W60, $X60),2),2,16),16-G$3,1),"."),"")</f>
         <v>0</v>
       </c>
-      <c r="H61" s="3" t="str">
+      <c r="H61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="I61" s="3" t="str">
+      <c r="I61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J61" s="3" t="str">
+      <c r="J61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>.</v>
       </c>
-      <c r="K61" s="3" t="str">
+      <c r="K61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="L61" s="3" t="str">
+      <c r="L61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="M61" s="3" t="str">
+      <c r="M61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="N61" s="3" t="str">
+      <c r="N61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="O61" s="3" t="str">
+      <c r="O61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>.</v>
       </c>
-      <c r="P61" s="3" t="str">
+      <c r="P61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="3" t="str">
+      <c r="Q61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="R61" s="3" t="str">
+      <c r="R61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="S61" s="3" t="str">
+      <c r="S61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="T61" s="3" t="str">
+      <c r="T61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>.</v>
       </c>
-      <c r="U61" s="3" t="str">
+      <c r="U61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="V61" s="3" t="str">
+      <c r="V61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="W61" s="3" t="str">
+      <c r="W61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="X61" s="3" t="str">
+      <c r="X61" s="2" t="str">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="Y61" s="11"/>
-      <c r="Z61" s="5">
+      <c r="Y61" s="9"/>
+      <c r="Z61" s="3">
         <f>IF(F61=0,_xlfn.DECIMAL(G61&amp;H61&amp;I61&amp;K61&amp;L61&amp;M61&amp;N61&amp;P61&amp;Q61&amp;R61&amp;S61&amp;U61&amp;V61&amp;W61&amp;X61, 2), 0-_xlfn.DECIMAL(G61&amp;H61&amp;I61&amp;K61&amp;L61&amp;M61&amp;N61&amp;P61&amp;Q61&amp;R61&amp;S61&amp;U61&amp;V61&amp;W61&amp;X61, 2))</f>
         <v>-11583</v>
       </c>
-      <c r="AA61" s="12" t="s">
+      <c r="AA61" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="2">
         <f>IF(F58+F59 = 2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <f>IF(MOD(SUM(P60:S60)+SUM(U60:X60),2) = 0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="L63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M63" s="2">
         <f>IF(U58+U59 = 2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O63" s="3" t="s">
+      <c r="O63" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P63" s="2">
         <f>IF(SUM(F60:X60) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R63" s="3" t="s">
+      <c r="R63" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S63" s="3">
+      <c r="S63" s="2">
         <f>IF(F60 = 1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U63" s="3" t="s">
+      <c r="U63" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V63" s="3">
+      <c r="V63" s="2">
         <f>MOD(F57+G57,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F65" s="10">
+      <c r="F65" s="8">
         <f t="shared" ref="F65:X65" si="32">IF(F66&lt;&gt;".",IF(F66+F67&lt;&gt;0,IF(F66+F67+G65=3,1,MOD(F66+F67+G65-1,2)),0),G65)</f>
         <v>1</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="8">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="8">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="8">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="8">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65" s="8">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="L65" s="10">
+      <c r="L65" s="8">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="M65" s="10">
+      <c r="M65" s="8">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="N65" s="10">
+      <c r="N65" s="8">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="O65" s="10">
+      <c r="O65" s="8">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="P65" s="10">
+      <c r="P65" s="8">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="Q65" s="10">
+      <c r="Q65" s="8">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="R65" s="10">
+      <c r="R65" s="8">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="S65" s="10">
+      <c r="S65" s="8">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="T65" s="10">
+      <c r="T65" s="8">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U65" s="10">
+      <c r="U65" s="8">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="V65" s="10">
+      <c r="V65" s="8">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="W65" s="10">
+      <c r="W65" s="8">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="X65" s="10">
+      <c r="X65" s="8">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AE65" s="1" t="s">
+      <c r="AE65" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="1"/>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
+      <c r="AF65" s="18"/>
+      <c r="AG65" s="18"/>
+      <c r="AH65" s="18"/>
+      <c r="AI65" s="18"/>
     </row>
     <row r="66" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F66" s="3" t="str">
+      <c r="F66" s="2" t="str">
         <f t="shared" ref="F66:X66" si="33">F14</f>
         <v>1</v>
       </c>
-      <c r="G66" s="3" t="str">
+      <c r="G66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="H66" s="3" t="str">
+      <c r="H66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I66" s="3" t="str">
+      <c r="I66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="J66" s="3" t="str">
+      <c r="J66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>.</v>
       </c>
-      <c r="K66" s="3" t="str">
+      <c r="K66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="L66" s="3" t="str">
+      <c r="L66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="M66" s="3" t="str">
+      <c r="M66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="N66" s="3" t="str">
+      <c r="N66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="O66" s="3" t="str">
+      <c r="O66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>.</v>
       </c>
-      <c r="P66" s="3" t="str">
+      <c r="P66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="Q66" s="3" t="str">
+      <c r="Q66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="R66" s="3" t="str">
+      <c r="R66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="S66" s="3" t="str">
+      <c r="S66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="T66" s="3" t="str">
+      <c r="T66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>.</v>
       </c>
-      <c r="U66" s="3" t="str">
+      <c r="U66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="V66" s="3" t="str">
+      <c r="V66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W66" s="3" t="str">
+      <c r="W66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="X66" s="3" t="str">
+      <c r="X66" s="2" t="str">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="Y66" s="11" t="s">
+      <c r="Y66" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AB66" s="5" t="s">
+      <c r="AB66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="AC66">
         <f>C14</f>
         <v>-11583</v>
       </c>
-      <c r="AD66" s="12" t="s">
+      <c r="AD66" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="1"/>
-      <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
+      <c r="AE66" s="18"/>
+      <c r="AF66" s="18"/>
+      <c r="AG66" s="18"/>
+      <c r="AH66" s="18"/>
+      <c r="AI66" s="18"/>
     </row>
     <row r="67" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F67" s="13" t="str">
+      <c r="F67" s="11" t="str">
         <f t="shared" ref="F67:X67" si="34">F6</f>
         <v>0</v>
       </c>
-      <c r="G67" s="13" t="str">
+      <c r="G67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="H67" s="13" t="str">
+      <c r="H67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="I67" s="13" t="str">
+      <c r="I67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="J67" s="13" t="str">
+      <c r="J67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>.</v>
       </c>
-      <c r="K67" s="13" t="str">
+      <c r="K67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="L67" s="13" t="str">
+      <c r="L67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="M67" s="13" t="str">
+      <c r="M67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="N67" s="13" t="str">
+      <c r="N67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="O67" s="13" t="str">
+      <c r="O67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>.</v>
       </c>
-      <c r="P67" s="13" t="str">
+      <c r="P67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="Q67" s="13" t="str">
+      <c r="Q67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="R67" s="13" t="str">
+      <c r="R67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="S67" s="13" t="str">
+      <c r="S67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="T67" s="13" t="str">
+      <c r="T67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>.</v>
       </c>
-      <c r="U67" s="13" t="str">
+      <c r="U67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="V67" s="13" t="str">
+      <c r="V67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="W67" s="13" t="str">
+      <c r="W67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="X67" s="13" t="str">
+      <c r="X67" s="11" t="str">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="Y67" s="11" t="s">
+      <c r="Y67" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AA67" s="4" t="s">
+      <c r="AA67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB67" s="14" t="s">
+      <c r="AB67" s="12" t="s">
         <v>57</v>
       </c>
       <c r="AC67">
         <f>C6</f>
         <v>32181</v>
       </c>
-      <c r="AD67" s="12" t="s">
+      <c r="AD67" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE67" s="1"/>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1"/>
-      <c r="AH67" s="1"/>
-      <c r="AI67" s="1"/>
+      <c r="AE67" s="18"/>
+      <c r="AF67" s="18"/>
+      <c r="AG67" s="18"/>
+      <c r="AH67" s="18"/>
+      <c r="AI67" s="18"/>
     </row>
     <row r="68" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="17">
+      <c r="E68" s="17"/>
+      <c r="F68" s="15">
         <f t="shared" ref="F68:X68" si="35">IF(F66&lt;&gt;".",MOD(G65+F66+F67,2),".")</f>
         <v>0</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="2">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="2">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="J68" s="3" t="str">
+      <c r="J68" s="2" t="str">
         <f t="shared" si="35"/>
         <v>.</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="2">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L68" s="2">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M68" s="2">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N68" s="2">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O68" s="3" t="str">
+      <c r="O68" s="2" t="str">
         <f t="shared" si="35"/>
         <v>.</v>
       </c>
-      <c r="P68" s="3">
+      <c r="P68" s="2">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="Q68" s="2">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="R68" s="3">
+      <c r="R68" s="2">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="S68" s="3">
+      <c r="S68" s="2">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="T68" s="3" t="str">
+      <c r="T68" s="2" t="str">
         <f t="shared" si="35"/>
         <v>.</v>
       </c>
-      <c r="U68" s="3">
+      <c r="U68" s="2">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="V68" s="3">
+      <c r="V68" s="2">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="W68" s="3">
+      <c r="W68" s="2">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="X68" s="3">
+      <c r="X68" s="2">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Y68" s="11" t="s">
+      <c r="Y68" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z68" s="5">
+      <c r="Z68" s="3">
         <f>IF(F68=0,_xlfn.DECIMAL(G68&amp;H68&amp;I68&amp;K68&amp;L68&amp;M68&amp;N68&amp;P68&amp;Q68&amp;R68&amp;S68&amp;U68&amp;V68&amp;W68&amp;X68, 2), 0-_xlfn.DECIMAL(G68&amp;H68&amp;I68&amp;K68&amp;L68&amp;M68&amp;N68&amp;P68&amp;Q68&amp;R68&amp;S68&amp;U68&amp;V68&amp;W68&amp;X68, 2))</f>
         <v>20598</v>
       </c>
-      <c r="AA68" s="12" t="s">
+      <c r="AA68" s="10" t="s">
         <v>43</v>
       </c>
       <c r="AC68">
         <f>AC66+AC67</f>
         <v>20598</v>
       </c>
-      <c r="AD68" s="12" t="s">
+      <c r="AD68" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AE68" s="1"/>
-      <c r="AF68" s="1"/>
-      <c r="AG68" s="1"/>
-      <c r="AH68" s="1"/>
-      <c r="AI68" s="1"/>
+      <c r="AE68" s="18"/>
+      <c r="AF68" s="18"/>
+      <c r="AG68" s="18"/>
+      <c r="AH68" s="18"/>
+      <c r="AI68" s="18"/>
     </row>
     <row r="69" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="3" t="str">
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="2" t="str">
         <f>IF(F68=0,"",1)</f>
         <v/>
       </c>
-      <c r="G69" s="3" t="str">
+      <c r="G69" s="2" t="str">
         <f t="shared" ref="G69:X69" si="36">IF($F69&lt;&gt;"",IF(G44&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G68, $H68, $I68, $K68, $L68, $M68, $N68, $P68, $Q68, $R68, $S68, $U68, $V68, $W68, $X68),2),2,16),16-G$3,1),"."),"")</f>
         <v/>
       </c>
-      <c r="H69" s="3" t="str">
+      <c r="H69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I69" s="3" t="str">
+      <c r="I69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J69" s="3" t="str">
+      <c r="J69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K69" s="3" t="str">
+      <c r="K69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L69" s="3" t="str">
+      <c r="L69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M69" s="3" t="str">
+      <c r="M69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N69" s="3" t="str">
+      <c r="N69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="O69" s="3" t="str">
+      <c r="O69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="P69" s="3" t="str">
+      <c r="P69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="Q69" s="3" t="str">
+      <c r="Q69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="R69" s="3" t="str">
+      <c r="R69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="S69" s="3" t="str">
+      <c r="S69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="T69" s="3" t="str">
+      <c r="T69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="U69" s="3" t="str">
+      <c r="U69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="V69" s="3" t="str">
+      <c r="V69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="W69" s="3" t="str">
+      <c r="W69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="X69" s="3" t="str">
+      <c r="X69" s="2" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="Y69" s="11"/>
-      <c r="AA69" s="12"/>
+      <c r="Y69" s="9"/>
+      <c r="AA69" s="10"/>
     </row>
     <row r="71" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="2">
         <f>IF(F66+F67 = 2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="2">
         <f>IF(MOD(SUM(P68:S68)+SUM(U68:X68),2) = 0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="L71" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M71" s="3">
+      <c r="M71" s="2">
         <f>IF(U66+U67 = 2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="O71" s="3" t="s">
+      <c r="O71" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P71" s="2">
         <f>IF(SUM(F68:X68) = 0, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="R71" s="3" t="s">
+      <c r="R71" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S71" s="3">
+      <c r="S71" s="2">
         <f>IF(F68 = 1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="U71" s="3" t="s">
+      <c r="U71" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="V71" s="3">
+      <c r="V71" s="2">
         <f>MOD(F65+G65,2)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="AE25:AI28"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="AE33:AI36"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="AE17:AI20"/>
     <mergeCell ref="D44:E45"/>
     <mergeCell ref="D52:E53"/>
     <mergeCell ref="D60:E61"/>
@@ -6537,12 +6543,6 @@
     <mergeCell ref="AE41:AI44"/>
     <mergeCell ref="AE57:AI60"/>
     <mergeCell ref="AE65:AI68"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="AE25:AI28"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="AE33:AI36"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="AE17:AI20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Labs/Inf/Lab5/required task.xlsx
+++ b/Labs/Inf/Lab5/required task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipka23/Desktop/ITMO/Labs/Inf/Lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0228432C-EA9D-9F4F-9D1A-2A1BB09C8970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949772A9-C9E0-7F4E-895A-87036EA1F845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="740" windowWidth="28320" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:AI71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="AC53" sqref="AC53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1845,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="X4" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(X$3="",".",MID(IF($C4&gt;0,_xlfn.BASE($C4,2,16),_xlfn.BASE($C4+2^16,2,16)),ABS(X$3-16),1))</f>
         <v>1</v>
       </c>
     </row>
@@ -3765,8 +3765,8 @@
         <v>43</v>
       </c>
       <c r="AC28">
-        <f>AC26+AC27</f>
-        <v>54063</v>
+        <f>AC26+AC27-65536</f>
+        <v>-11473</v>
       </c>
       <c r="AD28" s="10" t="s">
         <v>43</v>
@@ -3855,6 +3855,10 @@
       <c r="X29" s="2" t="str">
         <f t="shared" si="11"/>
         <v>1</v>
+      </c>
+      <c r="Z29" s="3">
+        <f>IF(F29=0,_xlfn.DECIMAL(G29&amp;H29&amp;I29&amp;K29&amp;L29&amp;M29&amp;N29&amp;P29&amp;Q29&amp;R29&amp;S29&amp;U29&amp;V29&amp;W29&amp;X29, 2), 0-_xlfn.DECIMAL(G29&amp;H29&amp;I29&amp;K29&amp;L29&amp;M29&amp;N29&amp;P29&amp;Q29&amp;R29&amp;S29&amp;U29&amp;V29&amp;W29&amp;X29, 2))</f>
+        <v>-11473</v>
       </c>
     </row>
     <row r="31" spans="4:35" x14ac:dyDescent="0.2">
@@ -5345,8 +5349,8 @@
         <v>43</v>
       </c>
       <c r="AC52">
-        <f>AC50+AC51</f>
-        <v>-54063</v>
+        <f>65536+AC50+AC51</f>
+        <v>11473</v>
       </c>
       <c r="AD52" s="10" t="s">
         <v>43</v>
@@ -6529,12 +6533,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="AE25:AI28"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="AE33:AI36"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="AE17:AI20"/>
     <mergeCell ref="D44:E45"/>
     <mergeCell ref="D52:E53"/>
     <mergeCell ref="D60:E61"/>
@@ -6543,6 +6541,12 @@
     <mergeCell ref="AE41:AI44"/>
     <mergeCell ref="AE57:AI60"/>
     <mergeCell ref="AE65:AI68"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="AE25:AI28"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="AE33:AI36"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="AE17:AI20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Labs/Inf/Lab5/required task.xlsx
+++ b/Labs/Inf/Lab5/required task.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipka23/Desktop/ITMO/Labs/Inf/Lab5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949772A9-C9E0-7F4E-895A-87036EA1F845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EA4E10-DA75-524C-B40C-2E8D1501B667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="740" windowWidth="28320" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1160" yWindow="740" windowWidth="28240" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -360,18 +360,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7DBEFF"/>
-        <bgColor rgb="FF9999FF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -415,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -428,9 +422,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1668,7 +1659,7 @@
   <dimension ref="A1:AI71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC53" sqref="AC53"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1772,80 +1763,80 @@
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="str">
-        <f t="shared" ref="F4:O15" si="0">IF(F$3="",".",MID(IF($C4&gt;0,_xlfn.BASE($C4,2,16),_xlfn.BASE($C4+2^16,2,16)),ABS(F$3-16),1))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P4" s="6" t="str">
-        <f t="shared" ref="P4:X15" si="1">IF(P$3="",".",MID(IF($C4&gt;0,_xlfn.BASE($C4,2,16),_xlfn.BASE($C4+2^16,2,16)),ABS(P$3-16),1))</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S4" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U4" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V4" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X4" s="7" t="str">
-        <f>IF(X$3="",".",MID(IF($C4&gt;0,_xlfn.BASE($C4,2,16),_xlfn.BASE($C4+2^16,2,16)),ABS(X$3-16),1))</f>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:V15" si="0">IF(F$3="",".",MOD(INT($C4/2^F$3), 2))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S4" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U4" s="6">
+        <f>IF(U$3="",".",MOD(INT($C4/2^U$3), 2))</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="6">
+        <f>IF(V$3="",".",MOD(INT($C4/2^V$3), 2))</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="6">
+        <f>IF(W$3="",".",MOD(INT($C4/2^W$3), 2))</f>
+        <v>1</v>
+      </c>
+      <c r="X4" s="6">
+        <f>MOD(C4,2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1863,80 +1854,80 @@
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X5" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U5" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="6">
+        <f t="shared" ref="W5:W15" si="1">IF(W$3="",".",MOD(INT($C5/2^W$3), 2))</f>
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <f t="shared" ref="X5:X15" si="2">MOD(C5,2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1954,80 +1945,80 @@
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P6" s="7" t="str">
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2045,80 +2036,80 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P7" s="6" t="str">
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W7" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X7" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2136,80 +2127,80 @@
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P8" s="6" t="str">
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X8" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X8" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2227,80 +2218,80 @@
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P9" s="7" t="str">
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2312,7 +2303,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:C15" si="2">-C4</f>
+        <f t="shared" ref="C10:C15" si="3">-C4</f>
         <v>-10299</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -2322,80 +2313,80 @@
         <f>"-B1="</f>
         <v>-B1=</v>
       </c>
-      <c r="F10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P10" s="7" t="str">
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W10" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2407,7 +2398,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-21882</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -2417,80 +2408,80 @@
         <f>"-B2="</f>
         <v>-B2=</v>
       </c>
-      <c r="F11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P11" s="7" t="str">
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W11" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="6" t="str">
-        <f t="shared" si="1"/>
+      <c r="X11" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2502,7 +2493,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-32181</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -2512,80 +2503,80 @@
         <f>"-B3="</f>
         <v>-B3=</v>
       </c>
-      <c r="F12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P12" s="2" t="str">
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X12" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2597,7 +2588,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-54063</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2607,80 +2598,80 @@
         <f>"-B4="</f>
         <v>-B4=</v>
       </c>
-      <c r="F13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P13" s="7" t="str">
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2692,7 +2683,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11583</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2701,80 +2692,80 @@
       <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P14" s="7" t="str">
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -2786,7 +2777,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-11473</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2796,249 +2787,249 @@
         <f>"-B6="</f>
         <v>-B6=</v>
       </c>
-      <c r="F15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="K15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>.</v>
-      </c>
-      <c r="P15" s="6" t="str">
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="U15" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>.</v>
-      </c>
-      <c r="U15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X15" s="7" t="str">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="F17" s="8">
-        <f t="shared" ref="F17:X17" si="3">IF(F18&lt;&gt;".",IF(F18+F19&lt;&gt;0,IF(F18+F19+G17=3,1,MOD(F18+F19+G17-1,2)),0),G17)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S17" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="T17" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U17" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="18" t="s">
+      <c r="F17" s="7">
+        <f t="shared" ref="F17:X17" si="4">IF(F18&lt;&gt;".",IF(F18+F19&lt;&gt;0,IF(F18+F19+G17=3,1,MOD(F18+F19+G17-1,2)),0),G17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T17" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AF17" s="18"/>
-      <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
-      <c r="AI17" s="18"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
     </row>
     <row r="18" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="2" t="str">
-        <f t="shared" ref="F18:X18" si="4">F4</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="F18" s="2">
+        <f t="shared" ref="F18:X18" si="5">F4</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>.</v>
-      </c>
-      <c r="K18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>.</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>.</v>
-      </c>
-      <c r="P18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>.</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="T18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>.</v>
-      </c>
-      <c r="U18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="V18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="X18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Y18" s="9" t="s">
+        <f t="shared" si="5"/>
+        <v>.</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y18" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AB18" s="3" t="s">
@@ -3048,14 +3039,14 @@
         <f>C4</f>
         <v>10299</v>
       </c>
-      <c r="AD18" s="10" t="s">
+      <c r="AD18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
-      <c r="AG18" s="18"/>
-      <c r="AH18" s="18"/>
-      <c r="AI18" s="18"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
     </row>
     <row r="19" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
@@ -3064,211 +3055,211 @@
       <c r="E19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="11" t="str">
-        <f t="shared" ref="F19:X19" si="5">F5</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>.</v>
-      </c>
-      <c r="K19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>.</v>
-      </c>
-      <c r="P19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>.</v>
-      </c>
-      <c r="U19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="V19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="X19" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="9" t="s">
+      <c r="F19" s="10">
+        <f t="shared" ref="F19:X19" si="6">F5</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>.</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>.</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T19" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>.</v>
+      </c>
+      <c r="U19" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V19" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X19" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB19" s="12" t="s">
+      <c r="AB19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AC19" s="13">
+      <c r="AC19" s="12">
         <f>C5</f>
         <v>21882</v>
       </c>
-      <c r="AD19" s="10" t="s">
+      <c r="AD19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
-      <c r="AG19" s="18"/>
-      <c r="AH19" s="18"/>
-      <c r="AI19" s="18"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
     </row>
     <row r="20" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="14">
-        <f t="shared" ref="F20:X20" si="6">IF(F18&lt;&gt;".",MOD(G17+F18+F19,2),".")</f>
+      <c r="E20" s="16"/>
+      <c r="F20" s="13">
+        <f t="shared" ref="F20:X20" si="7">IF(F18&lt;&gt;".",MOD(G17+F18+F19,2),".")</f>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="J20" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="L20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T20" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>.</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="W20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X20" s="2">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Y20" s="9" t="s">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Y20" s="8" t="s">
         <v>49</v>
       </c>
       <c r="Z20" s="3">
         <f>IF(F20=0,_xlfn.DECIMAL(G20&amp;H20&amp;I20&amp;K20&amp;L20&amp;M20&amp;N20&amp;P20&amp;Q20&amp;R20&amp;S20&amp;U20&amp;V20&amp;W20&amp;X20, 2), 0-_xlfn.DECIMAL(G20&amp;H20&amp;I20&amp;K20&amp;L20&amp;M20&amp;N20&amp;P20&amp;Q20&amp;R20&amp;S20&amp;U20&amp;V20&amp;W20&amp;X20, 2))</f>
         <v>32181</v>
       </c>
-      <c r="AA20" s="10" t="s">
+      <c r="AA20" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AC20">
         <f>AC18+AC19</f>
         <v>32181</v>
       </c>
-      <c r="AD20" s="10" t="s">
+      <c r="AD20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
     </row>
     <row r="21" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="2" t="str">
         <f>IF(F20=0,"",1)</f>
         <v/>
@@ -3391,168 +3382,168 @@
       </c>
     </row>
     <row r="25" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="8">
-        <f t="shared" ref="F25:X25" si="7">IF(F26&lt;&gt;".",IF(F26+F27&lt;&gt;0,IF(F26+F27+G25=3,1,MOD(F26+F27+G25-1,2)),0),G25)</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="J25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="M25" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="P25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="8">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="T25" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="18" t="s">
+      <c r="F25" s="7">
+        <f t="shared" ref="F25:X25" si="8">IF(F26&lt;&gt;".",IF(F26+F27&lt;&gt;0,IF(F26+F27+G25=3,1,MOD(F26+F27+G25-1,2)),0),G25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AF25" s="18"/>
-      <c r="AG25" s="18"/>
-      <c r="AH25" s="18"/>
-      <c r="AI25" s="18"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
     </row>
     <row r="26" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" ref="F26:X26" si="8">F5</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="str">
-        <f t="shared" si="8"/>
+      <c r="F26" s="2">
+        <f t="shared" ref="F26:X26" si="9">F5</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="J26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>.</v>
-      </c>
-      <c r="K26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
+        <v>.</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>.</v>
-      </c>
-      <c r="P26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="R26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S26" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
+        <v>.</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="T26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>.</v>
-      </c>
-      <c r="U26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="V26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="X26" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
+        <v>.</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB26" s="3" t="s">
@@ -3562,14 +3553,14 @@
         <f>C5</f>
         <v>21882</v>
       </c>
-      <c r="AD26" s="10" t="s">
+      <c r="AD26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
-      <c r="AG26" s="18"/>
-      <c r="AH26" s="18"/>
-      <c r="AI26" s="18"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
     </row>
     <row r="27" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
@@ -3578,282 +3569,282 @@
       <c r="E27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="11" t="str">
-        <f t="shared" ref="F27:X27" si="9">F6</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="I27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="J27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>.</v>
-      </c>
-      <c r="K27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="M27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>.</v>
-      </c>
-      <c r="P27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="T27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>.</v>
-      </c>
-      <c r="U27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="W27" s="11" t="str">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="11" t="str">
-        <f t="shared" si="9"/>
+      <c r="F27" s="10">
+        <f t="shared" ref="F27:X27" si="10">F6</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>.</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>.</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T27" s="10" t="str">
+        <f t="shared" si="10"/>
+        <v>.</v>
+      </c>
+      <c r="U27" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="W27" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="10">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AA27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB27" s="12" t="s">
+      <c r="AB27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC27" s="13">
+      <c r="AC27" s="12">
         <f>C6</f>
         <v>32181</v>
       </c>
-      <c r="AD27" s="10" t="s">
+      <c r="AD27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="18"/>
-      <c r="AG27" s="18"/>
-      <c r="AH27" s="18"/>
-      <c r="AI27" s="18"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
     </row>
     <row r="28" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="15">
-        <f t="shared" ref="F28:X28" si="10">IF(F26&lt;&gt;".",MOD(G25+F26+F27,2),".")</f>
+      <c r="E28" s="16"/>
+      <c r="F28" s="14">
+        <f t="shared" ref="F28:X28" si="11">IF(F26&lt;&gt;".",MOD(G25+F26+F27,2),".")</f>
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J28" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>.</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>.</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T28" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>.</v>
       </c>
       <c r="U28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="W28" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X28" s="2">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Y28" s="9" t="s">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="8" t="s">
         <v>49</v>
       </c>
       <c r="Z28" s="3">
         <f>IF(F28=0,_xlfn.DECIMAL(G28&amp;H28&amp;I28&amp;K28&amp;L28&amp;M28&amp;N28&amp;P28&amp;Q28&amp;R28&amp;S28&amp;U28&amp;V28&amp;W28&amp;X28, 2), 0-_xlfn.DECIMAL(G28&amp;H28&amp;I28&amp;K28&amp;L28&amp;M28&amp;N28&amp;P28&amp;Q28&amp;R28&amp;S28&amp;U28&amp;V28&amp;W28&amp;X28, 2))</f>
         <v>-21295</v>
       </c>
-      <c r="AA28" s="10" t="s">
+      <c r="AA28" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AC28">
         <f>AC26+AC27-65536</f>
         <v>-11473</v>
       </c>
-      <c r="AD28" s="10" t="s">
+      <c r="AD28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
     </row>
     <row r="29" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="2">
         <f>IF(F28=0,"",1)</f>
         <v>1</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f t="shared" ref="G29:X29" si="11">IF($F29&lt;&gt;"",IF(G4&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G28, $H28, $I28, $K28, $L28, $M28, $N28, $P28, $Q28, $R28, $S28, $U28, $V28, $W28, $X28),2),2,16),16-G$3,1),"."),"")</f>
+        <f t="shared" ref="G29:X29" si="12">IF($F29&lt;&gt;"",IF(G4&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G28, $H28, $I28, $K28, $L28, $M28, $N28, $P28, $Q28, $R28, $S28, $U28, $V28, $W28, $X28),2),2,16),16-G$3,1),"."),"")</f>
         <v>0</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>.</v>
       </c>
       <c r="K29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>.</v>
       </c>
       <c r="P29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="R29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="T29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>.</v>
       </c>
       <c r="U29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X29" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z29" s="3">
@@ -3906,171 +3897,171 @@
       </c>
     </row>
     <row r="33" spans="4:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F33" s="8">
-        <f t="shared" ref="F33:X33" si="12">IF(F34&lt;&gt;".",IF(F34+F35&lt;&gt;0,IF(F34+F35+G33=3,1,MOD(F34+F35+G33-1,2)),0),G33)</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="H33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="8">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="J33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="8">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="M33" s="8">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N33" s="8">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O33" s="8">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="P33" s="8">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Q33" s="8">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="R33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="18" t="s">
+      <c r="F33" s="7">
+        <f t="shared" ref="F33:X33" si="13">IF(F34&lt;&gt;".",IF(F34+F35&lt;&gt;0,IF(F34+F35+G33=3,1,MOD(F34+F35+G33-1,2)),0),G33)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P33" s="7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="7">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
     </row>
     <row r="34" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="2" t="str">
-        <f t="shared" ref="F34:X34" si="13">F5</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="2" t="str">
-        <f t="shared" si="13"/>
+      <c r="F34" s="2">
+        <f t="shared" ref="F34:X34" si="14">F5</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>.</v>
-      </c>
-      <c r="K34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="M34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
+        <v>.</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="O34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>.</v>
-      </c>
-      <c r="P34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="S34" s="2" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
+        <v>.</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>.</v>
-      </c>
-      <c r="U34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="V34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="X34" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="9" t="s">
+        <f t="shared" si="14"/>
+        <v>.</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="V34" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X34" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AB34" s="3" t="s">
@@ -4080,14 +4071,14 @@
         <f>C5</f>
         <v>21882</v>
       </c>
-      <c r="AD34" s="10" t="s">
+      <c r="AD34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
     </row>
     <row r="35" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="D35" s="1" t="s">
@@ -4096,285 +4087,285 @@
       <c r="E35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="11" t="str">
-        <f t="shared" ref="F35:X35" si="14">F10</f>
-        <v>1</v>
-      </c>
-      <c r="G35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="H35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="J35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>.</v>
-      </c>
-      <c r="K35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="M35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>.</v>
-      </c>
-      <c r="P35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Q35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="R35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>.</v>
-      </c>
-      <c r="U35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="W35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y35" s="9" t="s">
+      <c r="F35" s="10">
+        <f t="shared" ref="F35:X35" si="15">F10</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J35" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>.</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>.</v>
+      </c>
+      <c r="P35" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q35" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="R35" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>.</v>
+      </c>
+      <c r="U35" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="W35" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y35" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AA35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB35" s="12" t="s">
+      <c r="AB35" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AC35" s="13">
+      <c r="AC35" s="12">
         <f>C10</f>
         <v>-10299</v>
       </c>
-      <c r="AD35" s="10" t="s">
+      <c r="AD35" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
     </row>
     <row r="36" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" s="16"/>
       <c r="F36" s="2">
-        <f t="shared" ref="F36:X36" si="15">IF(F34&lt;&gt;".",MOD(G33+F34+F35,2),".")</f>
+        <f t="shared" ref="F36:X36" si="16">IF(F34&lt;&gt;".",MOD(G33+F34+F35,2),".")</f>
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J36" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>.</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O36" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>.</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="T36" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>.</v>
       </c>
       <c r="U36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="V36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X36" s="2">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Y36" s="9" t="s">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Y36" s="8" t="s">
         <v>49</v>
       </c>
       <c r="Z36" s="3">
         <f>IF(F36=0,_xlfn.DECIMAL(G36&amp;H36&amp;I36&amp;K36&amp;L36&amp;M36&amp;N36&amp;P36&amp;Q36&amp;R36&amp;S36&amp;U36&amp;V36&amp;W36&amp;X36, 2), 0-_xlfn.DECIMAL(G36&amp;H36&amp;I36&amp;K36&amp;L36&amp;M36&amp;N36&amp;P36&amp;Q36&amp;R36&amp;S36&amp;U36&amp;V36&amp;W36&amp;X36, 2))</f>
         <v>11583</v>
       </c>
-      <c r="AA36" s="10" t="s">
+      <c r="AA36" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AC36">
         <f>AC34+AC35</f>
         <v>11583</v>
       </c>
-      <c r="AD36" s="10" t="s">
+      <c r="AD36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
+      <c r="AI36" s="17"/>
     </row>
     <row r="37" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
       <c r="F37" s="2" t="str">
         <f>IF(F36=0,"",1)</f>
         <v/>
       </c>
       <c r="G37" s="2" t="str">
-        <f t="shared" ref="G37:X37" si="16">IF($F37&lt;&gt;"",IF(G12&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G36, $H36, $I36, $K36, $L36, $M36, $N36, $P36, $Q36, $R36, $S36, $U36, $V36, $W36, $X36),2),2,16),16-G$3,1),"."),"")</f>
+        <f t="shared" ref="G37:X37" si="17">IF($F37&lt;&gt;"",IF(G12&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G36, $H36, $I36, $K36, $L36, $M36, $N36, $P36, $Q36, $R36, $S36, $U36, $V36, $W36, $X36),2),2,16),16-G$3,1),"."),"")</f>
         <v/>
       </c>
       <c r="H37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="V37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="X37" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -4423,178 +4414,178 @@
       </c>
     </row>
     <row r="40" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="16"/>
-      <c r="AG40" s="16"/>
-      <c r="AH40" s="16"/>
-      <c r="AI40" s="16"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
     </row>
     <row r="41" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F41" s="8">
-        <f t="shared" ref="F41:X41" si="17">IF(F42&lt;&gt;".",IF(F42+F43&lt;&gt;0,IF(F42+F43+G41=3,1,MOD(F42+F43+G41-1,2)),0),G41)</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="H41" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="I41" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="J41" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="K41" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="L41" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="M41" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="N41" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O41" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="P41" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q41" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S41" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T41" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="8">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="W41" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="X41" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="18" t="s">
+      <c r="F41" s="7">
+        <f t="shared" ref="F41:X41" si="18">IF(F42&lt;&gt;".",IF(F42+F43&lt;&gt;0,IF(F42+F43+G41=3,1,MOD(F42+F43+G41-1,2)),0),G41)</f>
+        <v>1</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="L41" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="P41" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V41" s="7">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="W41" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE41" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
-      <c r="AI41" s="18"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+      <c r="AH41" s="17"/>
+      <c r="AI41" s="17"/>
     </row>
     <row r="42" spans="4:35" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F42" s="2" t="str">
-        <f t="shared" ref="F42:X42" si="18">F10</f>
-        <v>1</v>
-      </c>
-      <c r="G42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="2" t="str">
-        <f t="shared" si="18"/>
+      <c r="F42" s="2">
+        <f t="shared" ref="F42:X42" si="19">F10</f>
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="J42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>.</v>
-      </c>
-      <c r="K42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="M42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="N42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
+        <v>.</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="O42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>.</v>
-      </c>
-      <c r="P42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="Q42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="R42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="2" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
+        <v>.</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>.</v>
-      </c>
-      <c r="U42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="W42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="X42" s="2" t="str">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="Y42" s="9" t="s">
+        <f t="shared" si="19"/>
+        <v>.</v>
+      </c>
+      <c r="U42" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="W42" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="Y42" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AB42" s="3" t="s">
@@ -4604,14 +4595,14 @@
         <f>C10</f>
         <v>-10299</v>
       </c>
-      <c r="AD42" s="10" t="s">
+      <c r="AD42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE42" s="18"/>
-      <c r="AF42" s="18"/>
-      <c r="AG42" s="18"/>
-      <c r="AH42" s="18"/>
-      <c r="AI42" s="18"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
     </row>
     <row r="43" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="D43" s="1" t="s">
@@ -4620,295 +4611,295 @@
       <c r="E43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="11" t="str">
-        <f t="shared" ref="F43:X43" si="19">F11</f>
-        <v>1</v>
-      </c>
-      <c r="G43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="I43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>.</v>
-      </c>
-      <c r="K43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="L43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="N43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>.</v>
-      </c>
-      <c r="P43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="Q43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>.</v>
-      </c>
-      <c r="U43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="W43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="X43" s="11" t="str">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="9" t="s">
+      <c r="F43" s="10">
+        <f t="shared" ref="F43:X43" si="20">F11</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>.</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="L43" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>.</v>
+      </c>
+      <c r="P43" s="10">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="10" t="str">
+        <f t="shared" si="20"/>
+        <v>.</v>
+      </c>
+      <c r="U43" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="10">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="W43" s="10">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="X43" s="10">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AA43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB43" s="12" t="s">
+      <c r="AB43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AC43" s="13">
+      <c r="AC43" s="12">
         <f>C11</f>
         <v>-21882</v>
       </c>
-      <c r="AD43" s="10" t="s">
+      <c r="AD43" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE43" s="18"/>
-      <c r="AF43" s="18"/>
-      <c r="AG43" s="18"/>
-      <c r="AH43" s="18"/>
-      <c r="AI43" s="18"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
     </row>
     <row r="44" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="15">
-        <f t="shared" ref="F44:X44" si="20">IF(F42&lt;&gt;".",MOD(G41+F42+F43,2),".")</f>
+      <c r="E44" s="16"/>
+      <c r="F44" s="14">
+        <f t="shared" ref="F44:X44" si="21">IF(F42&lt;&gt;".",MOD(G41+F42+F43,2),".")</f>
         <v>1</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J44" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O44" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="R44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="T44" s="2" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>.</v>
       </c>
       <c r="U44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="Y44" s="9" t="s">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="Y44" s="8" t="s">
         <v>49</v>
       </c>
       <c r="Z44" s="3">
         <f>IF(F44=0,_xlfn.DECIMAL(G44&amp;H44&amp;I44&amp;K44&amp;L44&amp;M44&amp;N44&amp;P44&amp;Q44&amp;R44&amp;S44&amp;U44&amp;V44&amp;W44&amp;X44, 2), 0-_xlfn.DECIMAL(G44&amp;H44&amp;I44&amp;K44&amp;L44&amp;M44&amp;N44&amp;P44&amp;Q44&amp;R44&amp;S44&amp;U44&amp;V44&amp;W44&amp;X44, 2))</f>
         <v>-587</v>
       </c>
-      <c r="AA44" s="10" t="s">
+      <c r="AA44" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AC44">
         <f>AC42+AC43</f>
         <v>-32181</v>
       </c>
-      <c r="AD44" s="10" t="s">
+      <c r="AD44" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE44" s="18"/>
-      <c r="AF44" s="18"/>
-      <c r="AG44" s="18"/>
-      <c r="AH44" s="18"/>
-      <c r="AI44" s="18"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="17"/>
     </row>
     <row r="45" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="2">
         <f>IF(F44=0,"",1)</f>
         <v>1</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f t="shared" ref="G45:X45" si="21">IF($F45&lt;&gt;"",IF(G20&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G44, $H44, $I44, $K44, $L44, $M44, $N44, $P44, $Q44, $R44, $S44, $U44, $V44, $W44, $X44),2),2,16),16-G$3,1),"."),"")</f>
+        <f t="shared" ref="G45:X45" si="22">IF($F45&lt;&gt;"",IF(G20&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G44, $H44, $I44, $K44, $L44, $M44, $N44, $P44, $Q44, $R44, $S44, $U44, $V44, $W44, $X44),2),2,16),16-G$3,1),"."),"")</f>
         <v>1</v>
       </c>
       <c r="H45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="I45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>.</v>
       </c>
       <c r="K45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="L45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>.</v>
       </c>
       <c r="P45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Q45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="R45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="S45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="T45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>.</v>
       </c>
       <c r="U45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="W45" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X45" s="2" t="str">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="Y45" s="9" t="s">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="Y45" s="8" t="s">
         <v>49</v>
       </c>
       <c r="Z45" s="3">
         <f>IF(F45=0,_xlfn.DECIMAL(G45&amp;H45&amp;I45&amp;K45&amp;L45&amp;M45&amp;N45&amp;P45&amp;Q45&amp;R45&amp;S45&amp;U45&amp;V45&amp;W45&amp;X45, 2), 0-_xlfn.DECIMAL(G45&amp;H45&amp;I45&amp;K45&amp;L45&amp;M45&amp;N45&amp;P45&amp;Q45&amp;R45&amp;S45&amp;U45&amp;V45&amp;W45&amp;X45, 2))</f>
         <v>-32181</v>
       </c>
-      <c r="AA45" s="10" t="s">
+      <c r="AA45" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4955,185 +4946,185 @@
         <f>MOD(F41+G41,2)</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="16"/>
-      <c r="AF47" s="16"/>
-      <c r="AG47" s="16"/>
-      <c r="AH47" s="16"/>
-      <c r="AI47" s="16"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
     </row>
     <row r="48" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="AE48" s="16"/>
-      <c r="AF48" s="16"/>
-      <c r="AG48" s="16"/>
-      <c r="AH48" s="16"/>
-      <c r="AI48" s="16"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
     </row>
     <row r="49" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F49" s="8">
-        <f t="shared" ref="F49:X49" si="22">IF(F50&lt;&gt;".",IF(F50+F51&lt;&gt;0,IF(F50+F51+G49=3,1,MOD(F50+F51+G49-1,2)),0),G49)</f>
-        <v>1</v>
-      </c>
-      <c r="G49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M49" s="8">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="N49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="S49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="T49" s="8">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="U49" s="8">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="V49" s="8">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="W49" s="8">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="X49" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AE49" s="18" t="s">
+      <c r="F49" s="7">
+        <f t="shared" ref="F49:X49" si="23">IF(F50&lt;&gt;".",IF(F50+F51&lt;&gt;0,IF(F50+F51+G49=3,1,MOD(F50+F51+G49-1,2)),0),G49)</f>
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T49" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="U49" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="V49" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W49" s="7">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X49" s="7">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AF49" s="18"/>
-      <c r="AG49" s="18"/>
-      <c r="AH49" s="18"/>
-      <c r="AI49" s="18"/>
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="17"/>
+      <c r="AH49" s="17"/>
+      <c r="AI49" s="17"/>
     </row>
     <row r="50" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="E50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="2" t="str">
-        <f t="shared" ref="F50:X50" si="23">F11</f>
-        <v>1</v>
-      </c>
-      <c r="G50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="I50" s="2" t="str">
-        <f t="shared" si="23"/>
+      <c r="F50" s="2">
+        <f t="shared" ref="F50:X50" si="24">F11</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>.</v>
-      </c>
-      <c r="K50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="L50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="N50" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
+        <v>.</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="N50" s="2">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>.</v>
-      </c>
-      <c r="P50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Q50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="R50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="S50" s="2" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
+        <v>.</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="T50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>.</v>
-      </c>
-      <c r="U50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="V50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="W50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="X50" s="2" t="str">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="9" t="s">
+        <f t="shared" si="24"/>
+        <v>.</v>
+      </c>
+      <c r="U50" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="W50" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="X50" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AB50" s="3" t="s">
@@ -5143,14 +5134,14 @@
         <f>C11</f>
         <v>-21882</v>
       </c>
-      <c r="AD50" s="10" t="s">
+      <c r="AD50" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE50" s="18"/>
-      <c r="AF50" s="18"/>
-      <c r="AG50" s="18"/>
-      <c r="AH50" s="18"/>
-      <c r="AI50" s="18"/>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="17"/>
+      <c r="AH50" s="17"/>
+      <c r="AI50" s="17"/>
     </row>
     <row r="51" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="s">
@@ -5159,289 +5150,289 @@
       <c r="E51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F51" s="11" t="str">
-        <f t="shared" ref="F51:X51" si="24">F12</f>
-        <v>1</v>
-      </c>
-      <c r="G51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>.</v>
-      </c>
-      <c r="K51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="N51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>.</v>
-      </c>
-      <c r="P51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="R51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>.</v>
-      </c>
-      <c r="U51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="V51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="X51" s="11" t="str">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="Y51" s="9" t="s">
+      <c r="F51" s="10">
+        <f t="shared" ref="F51:X51" si="25">F12</f>
+        <v>1</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>.</v>
+      </c>
+      <c r="K51" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="10">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="N51" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>.</v>
+      </c>
+      <c r="P51" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="10">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R51" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="T51" s="10" t="str">
+        <f t="shared" si="25"/>
+        <v>.</v>
+      </c>
+      <c r="U51" s="10">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="V51" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="10">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="X51" s="10">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Y51" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AA51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB51" s="12" t="s">
+      <c r="AB51" s="11" t="s">
         <v>63</v>
       </c>
       <c r="AC51">
         <f>C12</f>
         <v>-32181</v>
       </c>
-      <c r="AD51" s="10" t="s">
+      <c r="AD51" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="18"/>
-      <c r="AI51" s="18"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+      <c r="AH51" s="17"/>
+      <c r="AI51" s="17"/>
     </row>
     <row r="52" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="15">
-        <f t="shared" ref="F52:X52" si="25">IF(F50&lt;&gt;".",MOD(G49+F50+F51,2),".")</f>
+      <c r="E52" s="16"/>
+      <c r="F52" s="14">
+        <f t="shared" ref="F52:X52" si="26">IF(F50&lt;&gt;".",MOD(G49+F50+F51,2),".")</f>
         <v>0</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="J52" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>.</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O52" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>.</v>
       </c>
       <c r="P52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Q52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="R52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="T52" s="2" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>.</v>
       </c>
       <c r="U52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W52" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X52" s="2">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="Y52" s="9" t="s">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y52" s="8" t="s">
         <v>49</v>
       </c>
       <c r="Z52" s="3">
         <f>IF(F52=0,_xlfn.DECIMAL(G52&amp;H52&amp;I52&amp;K52&amp;L52&amp;M52&amp;N52&amp;P52&amp;Q52&amp;R52&amp;S52&amp;U52&amp;V52&amp;W52&amp;X52, 2), 0-_xlfn.DECIMAL(G52&amp;H52&amp;I52&amp;K52&amp;L52&amp;M52&amp;N52&amp;P52&amp;Q52&amp;R52&amp;S52&amp;U52&amp;V52&amp;W52&amp;X52, 2))</f>
         <v>11473</v>
       </c>
-      <c r="AA52" s="10" t="s">
+      <c r="AA52" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AC52">
         <f>65536+AC50+AC51</f>
         <v>11473</v>
       </c>
-      <c r="AD52" s="10" t="s">
+      <c r="AD52" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE52" s="18"/>
-      <c r="AF52" s="18"/>
-      <c r="AG52" s="18"/>
-      <c r="AH52" s="18"/>
-      <c r="AI52" s="18"/>
+      <c r="AE52" s="17"/>
+      <c r="AF52" s="17"/>
+      <c r="AG52" s="17"/>
+      <c r="AH52" s="17"/>
+      <c r="AI52" s="17"/>
     </row>
     <row r="53" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
       <c r="F53" s="2" t="str">
         <f>IF(F52=0,"",1)</f>
         <v/>
       </c>
       <c r="G53" s="2" t="str">
-        <f t="shared" ref="G53:X53" si="26">IF($F53&lt;&gt;"",IF(G28&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G52, $H52, $I52, $K52, $L52, $M52, $N52, $P52, $Q52, $R52, $S52, $U52, $V52, $W52, $X52),2),2,16),16-G$3,1),"."),"")</f>
+        <f t="shared" ref="G53:X53" si="27">IF($F53&lt;&gt;"",IF(G28&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G52, $H52, $I52, $K52, $L52, $M52, $N52, $P52, $Q52, $R52, $S52, $U52, $V52, $W52, $X52),2),2,16),16-G$3,1),"."),"")</f>
         <v/>
       </c>
       <c r="H53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="J53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="K53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="M53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="N53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="O53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="P53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="R53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="S53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="T53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="U53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="V53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="W53" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="X53" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Y53" s="9"/>
-      <c r="AA53" s="10"/>
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="Y53" s="8"/>
+      <c r="AA53" s="9"/>
     </row>
     <row r="55" spans="4:35" x14ac:dyDescent="0.2">
       <c r="F55" s="2" t="s">
@@ -5488,171 +5479,171 @@
       </c>
     </row>
     <row r="57" spans="4:35" x14ac:dyDescent="0.2">
-      <c r="F57" s="8">
-        <f t="shared" ref="F57:X57" si="27">IF(F58&lt;&gt;".",IF(F58+F59&lt;&gt;0,IF(F58+F59+G57=3,1,MOD(F58+F59+G57-1,2)),0),G57)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="8">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="I57" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="8">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="K57" s="8">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="L57" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M57" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Q57" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R57" s="8">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="S57" s="8">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="T57" s="8">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="U57" s="8">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="V57" s="8">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="W57" s="8">
-        <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="X57" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="AE57" s="18" t="s">
+      <c r="F57" s="7">
+        <f t="shared" ref="F57:X57" si="28">IF(F58&lt;&gt;".",IF(F58+F59&lt;&gt;0,IF(F58+F59+G57=3,1,MOD(F58+F59+G57-1,2)),0),G57)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="K57" s="7">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="L57" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="7">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="S57" s="7">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="T57" s="7">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="U57" s="7">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="V57" s="7">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="W57" s="7">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="X57" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AF57" s="18"/>
-      <c r="AG57" s="18"/>
-      <c r="AH57" s="18"/>
-      <c r="AI57" s="18"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="17"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
     </row>
     <row r="58" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="E58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F58" s="2" t="str">
-        <f t="shared" ref="F58:X58" si="28">F4</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="I58" s="2" t="str">
-        <f t="shared" si="28"/>
+      <c r="F58" s="2">
+        <f t="shared" ref="F58:X58" si="29">F4</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>.</v>
-      </c>
-      <c r="K58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="L58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="N58" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
+        <v>.</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>.</v>
-      </c>
-      <c r="P58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="R58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="S58" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
+        <v>.</v>
+      </c>
+      <c r="P58" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="S58" s="2">
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="T58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>.</v>
-      </c>
-      <c r="U58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="V58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="X58" s="2" t="str">
-        <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="Y58" s="9" t="s">
+        <f t="shared" si="29"/>
+        <v>.</v>
+      </c>
+      <c r="U58" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="V58" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="X58" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Y58" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AB58" s="3" t="s">
@@ -5662,14 +5653,14 @@
         <f>C4</f>
         <v>10299</v>
       </c>
-      <c r="AD58" s="10" t="s">
+      <c r="AD58" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE58" s="18"/>
-      <c r="AF58" s="18"/>
-      <c r="AG58" s="18"/>
-      <c r="AH58" s="18"/>
-      <c r="AI58" s="18"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="17"/>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="17"/>
     </row>
     <row r="59" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="D59" s="1" t="s">
@@ -5678,293 +5669,293 @@
       <c r="E59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F59" s="11" t="str">
-        <f t="shared" ref="F59:X59" si="29">F11</f>
-        <v>1</v>
-      </c>
-      <c r="G59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="I59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>.</v>
-      </c>
-      <c r="K59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="L59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="N59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>.</v>
-      </c>
-      <c r="P59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="Q59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="R59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="T59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>.</v>
-      </c>
-      <c r="U59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="V59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="W59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="X59" s="11" t="str">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="9" t="s">
+      <c r="F59" s="10">
+        <f t="shared" ref="F59:X59" si="30">F11</f>
+        <v>1</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="I59" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v>.</v>
+      </c>
+      <c r="K59" s="10">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="L59" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="10">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="N59" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v>.</v>
+      </c>
+      <c r="P59" s="10">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="Q59" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="R59" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="10" t="str">
+        <f t="shared" si="30"/>
+        <v>.</v>
+      </c>
+      <c r="U59" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="10">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="W59" s="10">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="X59" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AA59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB59" s="12" t="s">
+      <c r="AB59" s="11" t="s">
         <v>61</v>
       </c>
       <c r="AC59">
         <f>C11</f>
         <v>-21882</v>
       </c>
-      <c r="AD59" s="10" t="s">
+      <c r="AD59" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE59" s="18"/>
-      <c r="AF59" s="18"/>
-      <c r="AG59" s="18"/>
-      <c r="AH59" s="18"/>
-      <c r="AI59" s="18"/>
+      <c r="AE59" s="17"/>
+      <c r="AF59" s="17"/>
+      <c r="AG59" s="17"/>
+      <c r="AH59" s="17"/>
+      <c r="AI59" s="17"/>
     </row>
     <row r="60" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="15">
-        <f t="shared" ref="F60:X60" si="30">IF(F58&lt;&gt;".",MOD(G57+F58+F59,2),".")</f>
+      <c r="E60" s="16"/>
+      <c r="F60" s="14">
+        <f t="shared" ref="F60:X60" si="31">IF(F58&lt;&gt;".",MOD(G57+F58+F59,2),".")</f>
         <v>1</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="J60" s="2" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>.</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O60" s="2" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>.</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="R60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T60" s="2" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>.</v>
       </c>
       <c r="U60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W60" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X60" s="2">
-        <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="Y60" s="9" t="s">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="Y60" s="8" t="s">
         <v>49</v>
       </c>
       <c r="Z60" s="3">
         <f>IF(F60=0,_xlfn.DECIMAL(G60&amp;H60&amp;I60&amp;K60&amp;L60&amp;M60&amp;N60&amp;P60&amp;Q60&amp;R60&amp;S60&amp;U60&amp;V60&amp;W60&amp;X60, 2), 0-_xlfn.DECIMAL(G60&amp;H60&amp;I60&amp;K60&amp;L60&amp;M60&amp;N60&amp;P60&amp;Q60&amp;R60&amp;S60&amp;U60&amp;V60&amp;W60&amp;X60, 2))</f>
         <v>-21185</v>
       </c>
-      <c r="AA60" s="10" t="s">
+      <c r="AA60" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AC60">
         <f>AC58+AC59</f>
         <v>-11583</v>
       </c>
-      <c r="AD60" s="10" t="s">
+      <c r="AD60" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE60" s="18"/>
-      <c r="AF60" s="18"/>
-      <c r="AG60" s="18"/>
-      <c r="AH60" s="18"/>
-      <c r="AI60" s="18"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+      <c r="AH60" s="17"/>
+      <c r="AI60" s="17"/>
     </row>
     <row r="61" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
       <c r="F61" s="2">
         <f>IF(F60=0,"",1)</f>
         <v>1</v>
       </c>
       <c r="G61" s="2" t="str">
-        <f t="shared" ref="G61:X61" si="31">IF($F61&lt;&gt;"",IF(G36&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G60, $H60, $I60, $K60, $L60, $M60, $N60, $P60, $Q60, $R60, $S60, $U60, $V60, $W60, $X60),2),2,16),16-G$3,1),"."),"")</f>
+        <f t="shared" ref="G61:X61" si="32">IF($F61&lt;&gt;"",IF(G36&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G60, $H60, $I60, $K60, $L60, $M60, $N60, $P60, $Q60, $R60, $S60, $U60, $V60, $W60, $X60),2),2,16),16-G$3,1),"."),"")</f>
         <v>0</v>
       </c>
       <c r="H61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="I61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="K61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="L61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="M61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="O61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="P61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="S61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="T61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>.</v>
       </c>
       <c r="U61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="W61" s="2" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="X61" s="2" t="str">
-        <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="Y61" s="9"/>
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="Y61" s="8"/>
       <c r="Z61" s="3">
         <f>IF(F61=0,_xlfn.DECIMAL(G61&amp;H61&amp;I61&amp;K61&amp;L61&amp;M61&amp;N61&amp;P61&amp;Q61&amp;R61&amp;S61&amp;U61&amp;V61&amp;W61&amp;X61, 2), 0-_xlfn.DECIMAL(G61&amp;H61&amp;I61&amp;K61&amp;L61&amp;M61&amp;N61&amp;P61&amp;Q61&amp;R61&amp;S61&amp;U61&amp;V61&amp;W61&amp;X61, 2))</f>
         <v>-11583</v>
       </c>
-      <c r="AA61" s="10" t="s">
+      <c r="AA61" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6013,171 +6004,171 @@
       </c>
     </row>
     <row r="65" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F65" s="8">
-        <f t="shared" ref="F65:X65" si="32">IF(F66&lt;&gt;".",IF(F66+F67&lt;&gt;0,IF(F66+F67+G65=3,1,MOD(F66+F67+G65-1,2)),0),G65)</f>
-        <v>1</v>
-      </c>
-      <c r="G65" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="H65" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="I65" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="J65" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="K65" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="L65" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="M65" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="N65" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="O65" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="P65" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="Q65" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="R65" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="T65" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="X65" s="8">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="AE65" s="18" t="s">
+      <c r="F65" s="7">
+        <f t="shared" ref="F65:X65" si="33">IF(F66&lt;&gt;".",IF(F66+F67&lt;&gt;0,IF(F66+F67+G65=3,1,MOD(F66+F67+G65-1,2)),0),G65)</f>
+        <v>1</v>
+      </c>
+      <c r="G65" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="H65" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="I65" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="L65" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="M65" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="N65" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="O65" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="P65" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="Q65" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="7">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="AE65" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AF65" s="18"/>
-      <c r="AG65" s="18"/>
-      <c r="AH65" s="18"/>
-      <c r="AI65" s="18"/>
+      <c r="AF65" s="17"/>
+      <c r="AG65" s="17"/>
+      <c r="AH65" s="17"/>
+      <c r="AI65" s="17"/>
     </row>
     <row r="66" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="E66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F66" s="2" t="str">
-        <f t="shared" ref="F66:X66" si="33">F14</f>
-        <v>1</v>
-      </c>
-      <c r="G66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="2" t="str">
-        <f t="shared" si="33"/>
+      <c r="F66" s="2">
+        <f t="shared" ref="F66:X66" si="34">F14</f>
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="J66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>.</v>
-      </c>
-      <c r="K66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="N66" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
+        <v>.</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="N66" s="2">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>.</v>
-      </c>
-      <c r="P66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="Q66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="R66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="2" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
+        <v>.</v>
+      </c>
+      <c r="P66" s="2">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="Q66" s="2">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="R66" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="2">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>.</v>
-      </c>
-      <c r="U66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="V66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="W66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="X66" s="2" t="str">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="Y66" s="9" t="s">
+        <f t="shared" si="34"/>
+        <v>.</v>
+      </c>
+      <c r="U66" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="2">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="Y66" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AB66" s="3" t="s">
@@ -6187,14 +6178,14 @@
         <f>C14</f>
         <v>-11583</v>
       </c>
-      <c r="AD66" s="10" t="s">
+      <c r="AD66" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE66" s="18"/>
-      <c r="AF66" s="18"/>
-      <c r="AG66" s="18"/>
-      <c r="AH66" s="18"/>
-      <c r="AI66" s="18"/>
+      <c r="AE66" s="17"/>
+      <c r="AF66" s="17"/>
+      <c r="AG66" s="17"/>
+      <c r="AH66" s="17"/>
+      <c r="AI66" s="17"/>
     </row>
     <row r="67" spans="4:35" ht="17" x14ac:dyDescent="0.25">
       <c r="D67" s="1" t="s">
@@ -6203,289 +6194,289 @@
       <c r="E67" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F67" s="11" t="str">
-        <f t="shared" ref="F67:X67" si="34">F6</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="H67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="I67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="J67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>.</v>
-      </c>
-      <c r="K67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="L67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="M67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="N67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="O67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>.</v>
-      </c>
-      <c r="P67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Q67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="R67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="S67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="T67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>.</v>
-      </c>
-      <c r="U67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="V67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="W67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="X67" s="11" t="str">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="Y67" s="9" t="s">
+      <c r="F67" s="10">
+        <f t="shared" ref="F67:X67" si="35">F6</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="10">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="10">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="I67" s="10">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="J67" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>.</v>
+      </c>
+      <c r="K67" s="10">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="L67" s="10">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="M67" s="10">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="10">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="O67" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>.</v>
+      </c>
+      <c r="P67" s="10">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="Q67" s="10">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="10">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="S67" s="10">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="T67" s="10" t="str">
+        <f t="shared" si="35"/>
+        <v>.</v>
+      </c>
+      <c r="U67" s="10">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="V67" s="10">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="W67" s="10">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="X67" s="10">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="Y67" s="8" t="s">
         <v>41</v>
       </c>
       <c r="AA67" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AB67" s="12" t="s">
+      <c r="AB67" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AC67">
         <f>C6</f>
         <v>32181</v>
       </c>
-      <c r="AD67" s="10" t="s">
+      <c r="AD67" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE67" s="18"/>
-      <c r="AF67" s="18"/>
-      <c r="AG67" s="18"/>
-      <c r="AH67" s="18"/>
-      <c r="AI67" s="18"/>
+      <c r="AE67" s="17"/>
+      <c r="AF67" s="17"/>
+      <c r="AG67" s="17"/>
+      <c r="AH67" s="17"/>
+      <c r="AI67" s="17"/>
     </row>
     <row r="68" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="15">
-        <f t="shared" ref="F68:X68" si="35">IF(F66&lt;&gt;".",MOD(G65+F66+F67,2),".")</f>
+      <c r="E68" s="16"/>
+      <c r="F68" s="14">
+        <f t="shared" ref="F68:X68" si="36">IF(F66&lt;&gt;".",MOD(G65+F66+F67,2),".")</f>
         <v>0</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="J68" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>.</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O68" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>.</v>
       </c>
       <c r="P68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="R68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="S68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="T68" s="2" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>.</v>
       </c>
       <c r="U68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="W68" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="X68" s="2">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Y68" s="9" t="s">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="8" t="s">
         <v>49</v>
       </c>
       <c r="Z68" s="3">
         <f>IF(F68=0,_xlfn.DECIMAL(G68&amp;H68&amp;I68&amp;K68&amp;L68&amp;M68&amp;N68&amp;P68&amp;Q68&amp;R68&amp;S68&amp;U68&amp;V68&amp;W68&amp;X68, 2), 0-_xlfn.DECIMAL(G68&amp;H68&amp;I68&amp;K68&amp;L68&amp;M68&amp;N68&amp;P68&amp;Q68&amp;R68&amp;S68&amp;U68&amp;V68&amp;W68&amp;X68, 2))</f>
         <v>20598</v>
       </c>
-      <c r="AA68" s="10" t="s">
+      <c r="AA68" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AC68">
         <f>AC66+AC67</f>
         <v>20598</v>
       </c>
-      <c r="AD68" s="10" t="s">
+      <c r="AD68" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AE68" s="18"/>
-      <c r="AF68" s="18"/>
-      <c r="AG68" s="18"/>
-      <c r="AH68" s="18"/>
-      <c r="AI68" s="18"/>
+      <c r="AE68" s="17"/>
+      <c r="AF68" s="17"/>
+      <c r="AG68" s="17"/>
+      <c r="AH68" s="17"/>
+      <c r="AI68" s="17"/>
     </row>
     <row r="69" spans="4:35" ht="17" x14ac:dyDescent="0.25">
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
       <c r="F69" s="2" t="str">
         <f>IF(F68=0,"",1)</f>
         <v/>
       </c>
       <c r="G69" s="2" t="str">
-        <f t="shared" ref="G69:X69" si="36">IF($F69&lt;&gt;"",IF(G44&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G68, $H68, $I68, $K68, $L68, $M68, $N68, $P68, $Q68, $R68, $S68, $U68, $V68, $W68, $X68),2),2,16),16-G$3,1),"."),"")</f>
+        <f t="shared" ref="G69:X69" si="37">IF($F69&lt;&gt;"",IF(G44&lt;&gt;".",MID(_xlfn.BASE(2^16-_xlfn.DECIMAL(CONCATENATE($G68, $H68, $I68, $K68, $L68, $M68, $N68, $P68, $Q68, $R68, $S68, $U68, $V68, $W68, $X68),2),2,16),16-G$3,1),"."),"")</f>
         <v/>
       </c>
       <c r="H69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="R69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="S69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="T69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="U69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="V69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="W69" s="2" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="X69" s="2" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="Y69" s="9"/>
-      <c r="AA69" s="10"/>
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="Y69" s="8"/>
+      <c r="AA69" s="9"/>
     </row>
     <row r="71" spans="4:35" x14ac:dyDescent="0.2">
       <c r="F71" s="2" t="s">
@@ -6533,6 +6524,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="AE25:AI28"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="AE33:AI36"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="AE17:AI20"/>
     <mergeCell ref="D44:E45"/>
     <mergeCell ref="D52:E53"/>
     <mergeCell ref="D60:E61"/>
@@ -6541,12 +6538,6 @@
     <mergeCell ref="AE41:AI44"/>
     <mergeCell ref="AE57:AI60"/>
     <mergeCell ref="AE65:AI68"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="AE25:AI28"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="AE33:AI36"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="AE17:AI20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
